--- a/static/data/작업공수/작업입력.xlsx
+++ b/static/data/작업공수/작업입력.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T768"/>
+  <dimension ref="A1:T831"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43647,6 +43647,3404 @@
       <c r="S768" t="inlineStr"/>
       <c r="T768" t="inlineStr"/>
     </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>2024-03-27</t>
+        </is>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C769" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D769" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E769" t="inlineStr"/>
+      <c r="F769" t="inlineStr">
+        <is>
+          <t>코어 벽체 변화층 알폼 양중 작업</t>
+        </is>
+      </c>
+      <c r="G769" t="inlineStr"/>
+      <c r="H769" t="inlineStr"/>
+      <c r="I769" t="inlineStr"/>
+      <c r="J769" t="inlineStr"/>
+      <c r="K769" t="inlineStr"/>
+      <c r="L769" t="inlineStr"/>
+      <c r="M769" t="inlineStr"/>
+      <c r="N769" t="n">
+        <v>2</v>
+      </c>
+      <c r="O769" t="n">
+        <v>59</v>
+      </c>
+      <c r="P769" t="inlineStr">
+        <is>
+          <t>도급</t>
+        </is>
+      </c>
+      <c r="Q769" t="inlineStr">
+        <is>
+          <t>특이사항: 손태문, 진경민, 공판토, 판칭화, 우승만 알폼 형틀, 알폼 주간 작업 X 연장 작업에만 있음</t>
+        </is>
+      </c>
+      <c r="R769" t="inlineStr"/>
+      <c r="S769" t="inlineStr"/>
+      <c r="T769" t="inlineStr"/>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>2024-03-27</t>
+        </is>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C770" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D770" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E770" t="inlineStr"/>
+      <c r="F770" t="inlineStr">
+        <is>
+          <t>바닥 및 보 슬라브 단열재 화스너 작업</t>
+        </is>
+      </c>
+      <c r="G770" t="inlineStr"/>
+      <c r="H770" t="inlineStr"/>
+      <c r="I770" t="inlineStr"/>
+      <c r="J770" t="inlineStr"/>
+      <c r="K770" t="inlineStr"/>
+      <c r="L770" t="inlineStr"/>
+      <c r="M770" t="inlineStr"/>
+      <c r="N770" t="n">
+        <v>1</v>
+      </c>
+      <c r="O770" t="n">
+        <v>59</v>
+      </c>
+      <c r="P770" t="inlineStr">
+        <is>
+          <t>도급</t>
+        </is>
+      </c>
+      <c r="Q770" t="inlineStr">
+        <is>
+          <t>특이사항: 손태문, 진경민, 공판토, 판칭화, 우승만 알폼 형틀, 알폼 주간 작업 X 연장 작업에만 있음</t>
+        </is>
+      </c>
+      <c r="R770" t="inlineStr"/>
+      <c r="S770" t="inlineStr"/>
+      <c r="T770" t="inlineStr"/>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>2024-03-27</t>
+        </is>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C771" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D771" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E771" t="inlineStr"/>
+      <c r="F771" t="inlineStr">
+        <is>
+          <t>코어 벽체 거푸집 작업</t>
+        </is>
+      </c>
+      <c r="G771" t="inlineStr"/>
+      <c r="H771" t="inlineStr"/>
+      <c r="I771" t="inlineStr"/>
+      <c r="J771" t="inlineStr"/>
+      <c r="K771" t="inlineStr"/>
+      <c r="L771" t="inlineStr"/>
+      <c r="M771" t="inlineStr"/>
+      <c r="N771" t="n">
+        <v>7</v>
+      </c>
+      <c r="O771" t="n">
+        <v>59</v>
+      </c>
+      <c r="P771" t="inlineStr">
+        <is>
+          <t>도급</t>
+        </is>
+      </c>
+      <c r="Q771" t="inlineStr">
+        <is>
+          <t>특이사항: 손태문, 진경민, 공판토, 판칭화, 우승만 알폼 형틀, 알폼 주간 작업 X 연장 작업에만 있음</t>
+        </is>
+      </c>
+      <c r="R771" t="inlineStr"/>
+      <c r="S771" t="inlineStr"/>
+      <c r="T771" t="inlineStr"/>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>2024-03-27</t>
+        </is>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C772" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D772" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E772" t="inlineStr"/>
+      <c r="F772" t="inlineStr">
+        <is>
+          <t>기둥 거푸집 작업</t>
+        </is>
+      </c>
+      <c r="G772" t="inlineStr"/>
+      <c r="H772" t="inlineStr"/>
+      <c r="I772" t="inlineStr"/>
+      <c r="J772" t="inlineStr"/>
+      <c r="K772" t="inlineStr"/>
+      <c r="L772" t="inlineStr"/>
+      <c r="M772" t="inlineStr"/>
+      <c r="N772" t="n">
+        <v>3</v>
+      </c>
+      <c r="O772" t="n">
+        <v>59</v>
+      </c>
+      <c r="P772" t="inlineStr">
+        <is>
+          <t>도급</t>
+        </is>
+      </c>
+      <c r="Q772" t="inlineStr">
+        <is>
+          <t>특이사항: 손태문, 진경민, 공판토, 판칭화, 우승만 알폼 형틀, 알폼 주간 작업 X 연장 작업에만 있음</t>
+        </is>
+      </c>
+      <c r="R772" t="inlineStr"/>
+      <c r="S772" t="inlineStr"/>
+      <c r="T772" t="inlineStr"/>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>2024-03-27</t>
+        </is>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C773" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D773" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E773" t="inlineStr"/>
+      <c r="F773" t="inlineStr">
+        <is>
+          <t>바닥 및 보 거푸집 작업</t>
+        </is>
+      </c>
+      <c r="G773" t="inlineStr"/>
+      <c r="H773" t="inlineStr"/>
+      <c r="I773" t="inlineStr"/>
+      <c r="J773" t="inlineStr"/>
+      <c r="K773" t="inlineStr"/>
+      <c r="L773" t="inlineStr"/>
+      <c r="M773" t="inlineStr"/>
+      <c r="N773" t="n">
+        <v>25</v>
+      </c>
+      <c r="O773" t="n">
+        <v>59</v>
+      </c>
+      <c r="P773" t="inlineStr">
+        <is>
+          <t>도급</t>
+        </is>
+      </c>
+      <c r="Q773" t="inlineStr">
+        <is>
+          <t>특이사항: 손태문, 진경민, 공판토, 판칭화, 우승만 알폼 형틀, 알폼 주간 작업 X 연장 작업에만 있음</t>
+        </is>
+      </c>
+      <c r="R773" t="inlineStr"/>
+      <c r="S773" t="inlineStr"/>
+      <c r="T773" t="inlineStr"/>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>2024-03-27</t>
+        </is>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C774" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D774" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E774" t="inlineStr"/>
+      <c r="F774" t="inlineStr">
+        <is>
+          <t>바닥 및 보 해체 작업</t>
+        </is>
+      </c>
+      <c r="G774" t="inlineStr"/>
+      <c r="H774" t="inlineStr"/>
+      <c r="I774" t="inlineStr"/>
+      <c r="J774" t="inlineStr"/>
+      <c r="K774" t="inlineStr"/>
+      <c r="L774" t="inlineStr"/>
+      <c r="M774" t="inlineStr"/>
+      <c r="N774" t="n">
+        <v>6</v>
+      </c>
+      <c r="O774" t="n">
+        <v>59</v>
+      </c>
+      <c r="P774" t="inlineStr">
+        <is>
+          <t>도급</t>
+        </is>
+      </c>
+      <c r="Q774" t="inlineStr">
+        <is>
+          <t>특이사항: 손태문, 진경민, 공판토, 판칭화, 우승만 알폼 형틀, 알폼 주간 작업 X 연장 작업에만 있음</t>
+        </is>
+      </c>
+      <c r="R774" t="inlineStr"/>
+      <c r="S774" t="inlineStr"/>
+      <c r="T774" t="inlineStr"/>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>2024-03-27</t>
+        </is>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C775" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D775" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E775" t="inlineStr"/>
+      <c r="F775" t="inlineStr">
+        <is>
+          <t>코어 벽체 기준목 설치 작업</t>
+        </is>
+      </c>
+      <c r="G775" t="inlineStr"/>
+      <c r="H775" t="inlineStr"/>
+      <c r="I775" t="inlineStr"/>
+      <c r="J775" t="inlineStr"/>
+      <c r="K775" t="inlineStr"/>
+      <c r="L775" t="inlineStr"/>
+      <c r="M775" t="inlineStr"/>
+      <c r="N775" t="n">
+        <v>1</v>
+      </c>
+      <c r="O775" t="n">
+        <v>59</v>
+      </c>
+      <c r="P775" t="inlineStr">
+        <is>
+          <t xml:space="preserve">직영 </t>
+        </is>
+      </c>
+      <c r="Q775" t="inlineStr">
+        <is>
+          <t>특이사항: 손태문, 진경민, 공판토, 판칭화, 우승만 알폼 형틀, 알폼 주간 작업 X 연장 작업에만 있음</t>
+        </is>
+      </c>
+      <c r="R775" t="inlineStr"/>
+      <c r="S775" t="inlineStr"/>
+      <c r="T775" t="inlineStr"/>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>2024-03-27</t>
+        </is>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C776" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D776" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E776" t="inlineStr"/>
+      <c r="F776" t="inlineStr">
+        <is>
+          <t>코어 벽체 변화층 재래식 구간 하부 마감 작업</t>
+        </is>
+      </c>
+      <c r="G776" t="inlineStr"/>
+      <c r="H776" t="inlineStr"/>
+      <c r="I776" t="inlineStr"/>
+      <c r="J776" t="inlineStr"/>
+      <c r="K776" t="inlineStr"/>
+      <c r="L776" t="inlineStr"/>
+      <c r="M776" t="inlineStr"/>
+      <c r="N776" t="n">
+        <v>2</v>
+      </c>
+      <c r="O776" t="n">
+        <v>59</v>
+      </c>
+      <c r="P776" t="inlineStr">
+        <is>
+          <t xml:space="preserve">직영 </t>
+        </is>
+      </c>
+      <c r="Q776" t="inlineStr">
+        <is>
+          <t>특이사항: 손태문, 진경민, 공판토, 판칭화, 우승만 알폼 형틀, 알폼 주간 작업 X 연장 작업에만 있음</t>
+        </is>
+      </c>
+      <c r="R776" t="inlineStr"/>
+      <c r="S776" t="inlineStr"/>
+      <c r="T776" t="inlineStr"/>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>2024-03-27</t>
+        </is>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C777" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D777" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E777" t="inlineStr"/>
+      <c r="F777" t="inlineStr">
+        <is>
+          <t>파라펫 방수턱 작업</t>
+        </is>
+      </c>
+      <c r="G777" t="inlineStr"/>
+      <c r="H777" t="inlineStr"/>
+      <c r="I777" t="inlineStr"/>
+      <c r="J777" t="inlineStr"/>
+      <c r="K777" t="inlineStr"/>
+      <c r="L777" t="inlineStr"/>
+      <c r="M777" t="inlineStr"/>
+      <c r="N777" t="n">
+        <v>2</v>
+      </c>
+      <c r="O777" t="n">
+        <v>59</v>
+      </c>
+      <c r="P777" t="inlineStr">
+        <is>
+          <t xml:space="preserve">직영 </t>
+        </is>
+      </c>
+      <c r="Q777" t="inlineStr">
+        <is>
+          <t>특이사항: 손태문, 진경민, 공판토, 판칭화, 우승만 알폼 형틀, 알폼 주간 작업 X 연장 작업에만 있음</t>
+        </is>
+      </c>
+      <c r="R777" t="inlineStr"/>
+      <c r="S777" t="inlineStr"/>
+      <c r="T777" t="inlineStr"/>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>2024-03-27</t>
+        </is>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C778" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D778" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E778" t="inlineStr"/>
+      <c r="F778" t="inlineStr">
+        <is>
+          <t>바닥 및 보 계단 폼 해체 및 단열재 수정 작업</t>
+        </is>
+      </c>
+      <c r="G778" t="inlineStr"/>
+      <c r="H778" t="inlineStr"/>
+      <c r="I778" t="inlineStr"/>
+      <c r="J778" t="inlineStr"/>
+      <c r="K778" t="inlineStr"/>
+      <c r="L778" t="inlineStr"/>
+      <c r="M778" t="inlineStr"/>
+      <c r="N778" t="n">
+        <v>1</v>
+      </c>
+      <c r="O778" t="n">
+        <v>59</v>
+      </c>
+      <c r="P778" t="inlineStr">
+        <is>
+          <t xml:space="preserve">직영 </t>
+        </is>
+      </c>
+      <c r="Q778" t="inlineStr">
+        <is>
+          <t>특이사항: 손태문, 진경민, 공판토, 판칭화, 우승만 알폼 형틀, 알폼 주간 작업 X 연장 작업에만 있음</t>
+        </is>
+      </c>
+      <c r="R778" t="inlineStr"/>
+      <c r="S778" t="inlineStr"/>
+      <c r="T778" t="inlineStr"/>
+    </row>
+    <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>2024-03-27</t>
+        </is>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C779" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D779" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E779" t="inlineStr"/>
+      <c r="F779" t="inlineStr">
+        <is>
+          <t>바닥 및 보 단차 보 용접 및 거푸집 작업</t>
+        </is>
+      </c>
+      <c r="G779" t="inlineStr"/>
+      <c r="H779" t="inlineStr"/>
+      <c r="I779" t="inlineStr"/>
+      <c r="J779" t="inlineStr"/>
+      <c r="K779" t="inlineStr"/>
+      <c r="L779" t="inlineStr"/>
+      <c r="M779" t="inlineStr"/>
+      <c r="N779" t="n">
+        <v>3</v>
+      </c>
+      <c r="O779" t="n">
+        <v>59</v>
+      </c>
+      <c r="P779" t="inlineStr">
+        <is>
+          <t xml:space="preserve">직영 </t>
+        </is>
+      </c>
+      <c r="Q779" t="inlineStr">
+        <is>
+          <t>특이사항: 손태문, 진경민, 공판토, 판칭화, 우승만 알폼 형틀, 알폼 주간 작업 X 연장 작업에만 있음</t>
+        </is>
+      </c>
+      <c r="R779" t="inlineStr"/>
+      <c r="S779" t="inlineStr"/>
+      <c r="T779" t="inlineStr"/>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>2024-03-27</t>
+        </is>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C780" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D780" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E780" t="inlineStr"/>
+      <c r="F780" t="inlineStr">
+        <is>
+          <t>코어 벽체 막볼트 작업</t>
+        </is>
+      </c>
+      <c r="G780" t="inlineStr"/>
+      <c r="H780" t="inlineStr"/>
+      <c r="I780" t="inlineStr"/>
+      <c r="J780" t="inlineStr"/>
+      <c r="K780" t="inlineStr"/>
+      <c r="L780" t="inlineStr"/>
+      <c r="M780" t="inlineStr"/>
+      <c r="N780" t="n">
+        <v>1</v>
+      </c>
+      <c r="O780" t="n">
+        <v>59</v>
+      </c>
+      <c r="P780" t="inlineStr">
+        <is>
+          <t xml:space="preserve">직영 </t>
+        </is>
+      </c>
+      <c r="Q780" t="inlineStr">
+        <is>
+          <t>특이사항: 손태문, 진경민, 공판토, 판칭화, 우승만 알폼 형틀, 알폼 주간 작업 X 연장 작업에만 있음</t>
+        </is>
+      </c>
+      <c r="R780" t="inlineStr"/>
+      <c r="S780" t="inlineStr"/>
+      <c r="T780" t="inlineStr"/>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>2024-03-28</t>
+        </is>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C781" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D781" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E781" t="inlineStr"/>
+      <c r="F781" t="inlineStr">
+        <is>
+          <t>코어 벽체 하부 마감 작업</t>
+        </is>
+      </c>
+      <c r="G781" t="inlineStr"/>
+      <c r="H781" t="inlineStr"/>
+      <c r="I781" t="inlineStr"/>
+      <c r="J781" t="inlineStr"/>
+      <c r="K781" t="inlineStr"/>
+      <c r="L781" t="inlineStr"/>
+      <c r="M781" t="inlineStr"/>
+      <c r="N781" t="n">
+        <v>2</v>
+      </c>
+      <c r="O781" t="n">
+        <v>59</v>
+      </c>
+      <c r="P781" t="inlineStr">
+        <is>
+          <t>도급</t>
+        </is>
+      </c>
+      <c r="Q781" t="inlineStr">
+        <is>
+          <t>특이사항: 손태문, 진경민, 류젠샹, 공판토, 판칭화 주간 알폼 작업 X, 알폼 형틀 작업</t>
+        </is>
+      </c>
+      <c r="R781" t="inlineStr"/>
+      <c r="S781" t="inlineStr"/>
+      <c r="T781" t="inlineStr"/>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>2024-03-28</t>
+        </is>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C782" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D782" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E782" t="inlineStr"/>
+      <c r="F782" t="inlineStr">
+        <is>
+          <t>바닥 및 보 서포트 해체 작업</t>
+        </is>
+      </c>
+      <c r="G782" t="inlineStr"/>
+      <c r="H782" t="inlineStr"/>
+      <c r="I782" t="inlineStr"/>
+      <c r="J782" t="inlineStr"/>
+      <c r="K782" t="inlineStr"/>
+      <c r="L782" t="inlineStr"/>
+      <c r="M782" t="inlineStr"/>
+      <c r="N782" t="n">
+        <v>3</v>
+      </c>
+      <c r="O782" t="n">
+        <v>59</v>
+      </c>
+      <c r="P782" t="inlineStr">
+        <is>
+          <t>도급</t>
+        </is>
+      </c>
+      <c r="Q782" t="inlineStr">
+        <is>
+          <t>특이사항: 손태문, 진경민, 류젠샹, 공판토, 판칭화 주간 알폼 작업 X, 알폼 형틀 작업</t>
+        </is>
+      </c>
+      <c r="R782" t="inlineStr"/>
+      <c r="S782" t="inlineStr"/>
+      <c r="T782" t="inlineStr"/>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>2024-03-28</t>
+        </is>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C783" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D783" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E783" t="inlineStr"/>
+      <c r="F783" t="inlineStr">
+        <is>
+          <t>바닥 및 보 자재 이동 및 양중 작업</t>
+        </is>
+      </c>
+      <c r="G783" t="inlineStr"/>
+      <c r="H783" t="inlineStr"/>
+      <c r="I783" t="inlineStr"/>
+      <c r="J783" t="inlineStr"/>
+      <c r="K783" t="inlineStr"/>
+      <c r="L783" t="inlineStr"/>
+      <c r="M783" t="inlineStr"/>
+      <c r="N783" t="n">
+        <v>1</v>
+      </c>
+      <c r="O783" t="n">
+        <v>59</v>
+      </c>
+      <c r="P783" t="inlineStr">
+        <is>
+          <t>도급</t>
+        </is>
+      </c>
+      <c r="Q783" t="inlineStr">
+        <is>
+          <t>특이사항: 손태문, 진경민, 류젠샹, 공판토, 판칭화 주간 알폼 작업 X, 알폼 형틀 작업</t>
+        </is>
+      </c>
+      <c r="R783" t="inlineStr"/>
+      <c r="S783" t="inlineStr"/>
+      <c r="T783" t="inlineStr"/>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>2024-03-28</t>
+        </is>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C784" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D784" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E784" t="inlineStr"/>
+      <c r="F784" t="inlineStr">
+        <is>
+          <t>바닥 및 보 거푸집 작업</t>
+        </is>
+      </c>
+      <c r="G784" t="inlineStr"/>
+      <c r="H784" t="inlineStr"/>
+      <c r="I784" t="inlineStr"/>
+      <c r="J784" t="inlineStr"/>
+      <c r="K784" t="inlineStr"/>
+      <c r="L784" t="inlineStr"/>
+      <c r="M784" t="inlineStr"/>
+      <c r="N784" t="n">
+        <v>11</v>
+      </c>
+      <c r="O784" t="n">
+        <v>59</v>
+      </c>
+      <c r="P784" t="inlineStr">
+        <is>
+          <t>도급</t>
+        </is>
+      </c>
+      <c r="Q784" t="inlineStr">
+        <is>
+          <t>특이사항: 손태문, 진경민, 류젠샹, 공판토, 판칭화 주간 알폼 작업 X, 알폼 형틀 작업</t>
+        </is>
+      </c>
+      <c r="R784" t="inlineStr"/>
+      <c r="S784" t="inlineStr"/>
+      <c r="T784" t="inlineStr"/>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>2024-03-28</t>
+        </is>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C785" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D785" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E785" t="inlineStr"/>
+      <c r="F785" t="inlineStr">
+        <is>
+          <t>바닥 및 보 거푸집 작업</t>
+        </is>
+      </c>
+      <c r="G785" t="inlineStr"/>
+      <c r="H785" t="inlineStr"/>
+      <c r="I785" t="inlineStr"/>
+      <c r="J785" t="inlineStr"/>
+      <c r="K785" t="inlineStr"/>
+      <c r="L785" t="inlineStr"/>
+      <c r="M785" t="inlineStr"/>
+      <c r="N785" t="n">
+        <v>10</v>
+      </c>
+      <c r="O785" t="n">
+        <v>59</v>
+      </c>
+      <c r="P785" t="inlineStr">
+        <is>
+          <t>도급</t>
+        </is>
+      </c>
+      <c r="Q785" t="inlineStr">
+        <is>
+          <t>특이사항: 손태문, 진경민, 류젠샹, 공판토, 판칭화 주간 알폼 작업 X, 알폼 형틀 작업</t>
+        </is>
+      </c>
+      <c r="R785" t="inlineStr"/>
+      <c r="S785" t="inlineStr"/>
+      <c r="T785" t="inlineStr"/>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>2024-03-28</t>
+        </is>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C786" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D786" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E786" t="inlineStr"/>
+      <c r="F786" t="inlineStr">
+        <is>
+          <t>코어 벽체 해체 작업</t>
+        </is>
+      </c>
+      <c r="G786" t="inlineStr"/>
+      <c r="H786" t="inlineStr"/>
+      <c r="I786" t="inlineStr"/>
+      <c r="J786" t="inlineStr"/>
+      <c r="K786" t="inlineStr"/>
+      <c r="L786" t="inlineStr"/>
+      <c r="M786" t="inlineStr"/>
+      <c r="N786" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O786" t="n">
+        <v>59</v>
+      </c>
+      <c r="P786" t="inlineStr">
+        <is>
+          <t>도급</t>
+        </is>
+      </c>
+      <c r="Q786" t="inlineStr">
+        <is>
+          <t>특이사항: 손태문, 진경민, 류젠샹, 공판토, 판칭화 주간 알폼 작업 X, 알폼 형틀 작업</t>
+        </is>
+      </c>
+      <c r="R786" t="inlineStr"/>
+      <c r="S786" t="inlineStr"/>
+      <c r="T786" t="inlineStr"/>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>2024-03-28</t>
+        </is>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C787" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D787" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E787" t="inlineStr"/>
+      <c r="F787" t="inlineStr">
+        <is>
+          <t>기둥 해체 작업</t>
+        </is>
+      </c>
+      <c r="G787" t="inlineStr"/>
+      <c r="H787" t="inlineStr"/>
+      <c r="I787" t="inlineStr"/>
+      <c r="J787" t="inlineStr"/>
+      <c r="K787" t="inlineStr"/>
+      <c r="L787" t="inlineStr"/>
+      <c r="M787" t="inlineStr"/>
+      <c r="N787" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O787" t="n">
+        <v>59</v>
+      </c>
+      <c r="P787" t="inlineStr">
+        <is>
+          <t>도급</t>
+        </is>
+      </c>
+      <c r="Q787" t="inlineStr">
+        <is>
+          <t>특이사항: 손태문, 진경민, 류젠샹, 공판토, 판칭화 주간 알폼 작업 X, 알폼 형틀 작업</t>
+        </is>
+      </c>
+      <c r="R787" t="inlineStr"/>
+      <c r="S787" t="inlineStr"/>
+      <c r="T787" t="inlineStr"/>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>2024-03-28</t>
+        </is>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C788" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D788" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E788" t="inlineStr"/>
+      <c r="F788" t="inlineStr">
+        <is>
+          <t>코어 벽체 노바시 폼 마감 및 핀 검사 작업</t>
+        </is>
+      </c>
+      <c r="G788" t="inlineStr"/>
+      <c r="H788" t="inlineStr"/>
+      <c r="I788" t="inlineStr"/>
+      <c r="J788" t="inlineStr"/>
+      <c r="K788" t="inlineStr"/>
+      <c r="L788" t="inlineStr"/>
+      <c r="M788" t="inlineStr"/>
+      <c r="N788" t="n">
+        <v>6</v>
+      </c>
+      <c r="O788" t="n">
+        <v>59</v>
+      </c>
+      <c r="P788" t="inlineStr">
+        <is>
+          <t>도급</t>
+        </is>
+      </c>
+      <c r="Q788" t="inlineStr">
+        <is>
+          <t>특이사항: 손태문, 진경민, 류젠샹, 공판토, 판칭화 주간 알폼 작업 X, 알폼 형틀 작업</t>
+        </is>
+      </c>
+      <c r="R788" t="inlineStr"/>
+      <c r="S788" t="inlineStr"/>
+      <c r="T788" t="inlineStr"/>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>2024-03-28</t>
+        </is>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C789" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D789" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E789" t="inlineStr"/>
+      <c r="F789" t="inlineStr">
+        <is>
+          <t>바닥 및 보 단차 보 거푸집 및 용접 작업</t>
+        </is>
+      </c>
+      <c r="G789" t="inlineStr"/>
+      <c r="H789" t="inlineStr"/>
+      <c r="I789" t="inlineStr"/>
+      <c r="J789" t="inlineStr"/>
+      <c r="K789" t="inlineStr"/>
+      <c r="L789" t="inlineStr"/>
+      <c r="M789" t="inlineStr"/>
+      <c r="N789" t="n">
+        <v>3</v>
+      </c>
+      <c r="O789" t="n">
+        <v>59</v>
+      </c>
+      <c r="P789" t="inlineStr">
+        <is>
+          <t xml:space="preserve">직영 </t>
+        </is>
+      </c>
+      <c r="Q789" t="inlineStr">
+        <is>
+          <t>특이사항: 손태문, 진경민, 류젠샹, 공판토, 판칭화 주간 알폼 작업 X, 알폼 형틀 작업</t>
+        </is>
+      </c>
+      <c r="R789" t="inlineStr"/>
+      <c r="S789" t="inlineStr"/>
+      <c r="T789" t="inlineStr"/>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>2024-03-28</t>
+        </is>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C790" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D790" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E790" t="inlineStr"/>
+      <c r="F790" t="inlineStr">
+        <is>
+          <t>코어 벽체 계단 재설치 작업(도면 변경)</t>
+        </is>
+      </c>
+      <c r="G790" t="inlineStr"/>
+      <c r="H790" t="inlineStr"/>
+      <c r="I790" t="inlineStr"/>
+      <c r="J790" t="inlineStr"/>
+      <c r="K790" t="inlineStr"/>
+      <c r="L790" t="inlineStr"/>
+      <c r="M790" t="inlineStr"/>
+      <c r="N790" t="n">
+        <v>2</v>
+      </c>
+      <c r="O790" t="n">
+        <v>59</v>
+      </c>
+      <c r="P790" t="inlineStr">
+        <is>
+          <t xml:space="preserve">직영 </t>
+        </is>
+      </c>
+      <c r="Q790" t="inlineStr">
+        <is>
+          <t>특이사항: 손태문, 진경민, 류젠샹, 공판토, 판칭화 주간 알폼 작업 X, 알폼 형틀 작업</t>
+        </is>
+      </c>
+      <c r="R790" t="inlineStr"/>
+      <c r="S790" t="inlineStr"/>
+      <c r="T790" t="inlineStr"/>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>2024-03-28</t>
+        </is>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C791" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D791" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E791" t="inlineStr"/>
+      <c r="F791" t="inlineStr">
+        <is>
+          <t>코어 벽체 안통 막볼트 및 다대 마감 작업</t>
+        </is>
+      </c>
+      <c r="G791" t="inlineStr"/>
+      <c r="H791" t="inlineStr"/>
+      <c r="I791" t="inlineStr"/>
+      <c r="J791" t="inlineStr"/>
+      <c r="K791" t="inlineStr"/>
+      <c r="L791" t="inlineStr"/>
+      <c r="M791" t="inlineStr"/>
+      <c r="N791" t="n">
+        <v>3</v>
+      </c>
+      <c r="O791" t="n">
+        <v>59</v>
+      </c>
+      <c r="P791" t="inlineStr">
+        <is>
+          <t xml:space="preserve">직영 </t>
+        </is>
+      </c>
+      <c r="Q791" t="inlineStr">
+        <is>
+          <t>특이사항: 손태문, 진경민, 류젠샹, 공판토, 판칭화 주간 알폼 작업 X, 알폼 형틀 작업</t>
+        </is>
+      </c>
+      <c r="R791" t="inlineStr"/>
+      <c r="S791" t="inlineStr"/>
+      <c r="T791" t="inlineStr"/>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>2024-03-28</t>
+        </is>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C792" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D792" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E792" t="inlineStr"/>
+      <c r="F792" t="inlineStr">
+        <is>
+          <t>코어 벽체, 파라펫 방수턱 마감 및 갱폼 기리바리 작업</t>
+        </is>
+      </c>
+      <c r="G792" t="inlineStr"/>
+      <c r="H792" t="inlineStr"/>
+      <c r="I792" t="inlineStr"/>
+      <c r="J792" t="inlineStr"/>
+      <c r="K792" t="inlineStr"/>
+      <c r="L792" t="inlineStr"/>
+      <c r="M792" t="inlineStr"/>
+      <c r="N792" t="n">
+        <v>4</v>
+      </c>
+      <c r="O792" t="n">
+        <v>59</v>
+      </c>
+      <c r="P792" t="inlineStr">
+        <is>
+          <t xml:space="preserve">직영 </t>
+        </is>
+      </c>
+      <c r="Q792" t="inlineStr">
+        <is>
+          <t>특이사항: 손태문, 진경민, 류젠샹, 공판토, 판칭화 주간 알폼 작업 X, 알폼 형틀 작업</t>
+        </is>
+      </c>
+      <c r="R792" t="inlineStr"/>
+      <c r="S792" t="inlineStr"/>
+      <c r="T792" t="inlineStr"/>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>2024-03-28</t>
+        </is>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C793" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D793" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E793" t="inlineStr"/>
+      <c r="F793" t="inlineStr">
+        <is>
+          <t>코어 벽체 EV실 수벽(도면변경) 재래식 작업 200인방 &gt; 400으로 변경</t>
+        </is>
+      </c>
+      <c r="G793" t="inlineStr"/>
+      <c r="H793" t="inlineStr"/>
+      <c r="I793" t="inlineStr"/>
+      <c r="J793" t="inlineStr"/>
+      <c r="K793" t="inlineStr"/>
+      <c r="L793" t="inlineStr"/>
+      <c r="M793" t="inlineStr"/>
+      <c r="N793" t="n">
+        <v>3</v>
+      </c>
+      <c r="O793" t="n">
+        <v>59</v>
+      </c>
+      <c r="P793" t="inlineStr">
+        <is>
+          <t xml:space="preserve">직영 </t>
+        </is>
+      </c>
+      <c r="Q793" t="inlineStr">
+        <is>
+          <t>특이사항: 손태문, 진경민, 류젠샹, 공판토, 판칭화 주간 알폼 작업 X, 알폼 형틀 작업</t>
+        </is>
+      </c>
+      <c r="R793" t="inlineStr"/>
+      <c r="S793" t="inlineStr"/>
+      <c r="T793" t="inlineStr"/>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>2024-03-28</t>
+        </is>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C794" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D794" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E794" t="inlineStr"/>
+      <c r="F794" t="inlineStr">
+        <is>
+          <t>코어 벽체 자재 준비 및 양중 작업</t>
+        </is>
+      </c>
+      <c r="G794" t="inlineStr"/>
+      <c r="H794" t="inlineStr"/>
+      <c r="I794" t="inlineStr"/>
+      <c r="J794" t="inlineStr"/>
+      <c r="K794" t="inlineStr"/>
+      <c r="L794" t="inlineStr"/>
+      <c r="M794" t="inlineStr"/>
+      <c r="N794" t="n">
+        <v>1</v>
+      </c>
+      <c r="O794" t="n">
+        <v>59</v>
+      </c>
+      <c r="P794" t="inlineStr">
+        <is>
+          <t xml:space="preserve">직영 </t>
+        </is>
+      </c>
+      <c r="Q794" t="inlineStr">
+        <is>
+          <t>특이사항: 손태문, 진경민, 류젠샹, 공판토, 판칭화 주간 알폼 작업 X, 알폼 형틀 작업</t>
+        </is>
+      </c>
+      <c r="R794" t="inlineStr"/>
+      <c r="S794" t="inlineStr"/>
+      <c r="T794" t="inlineStr"/>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C795" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D795" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E795" t="inlineStr"/>
+      <c r="F795" t="inlineStr">
+        <is>
+          <t>바닥 및 보 아기사리 작업</t>
+        </is>
+      </c>
+      <c r="G795" t="inlineStr"/>
+      <c r="H795" t="inlineStr"/>
+      <c r="I795" t="inlineStr"/>
+      <c r="J795" t="inlineStr"/>
+      <c r="K795" t="inlineStr"/>
+      <c r="L795" t="inlineStr"/>
+      <c r="M795" t="inlineStr"/>
+      <c r="N795" t="n">
+        <v>5</v>
+      </c>
+      <c r="O795" t="n">
+        <v>67</v>
+      </c>
+      <c r="P795" t="inlineStr">
+        <is>
+          <t>도급</t>
+        </is>
+      </c>
+      <c r="Q795" t="inlineStr">
+        <is>
+          <t xml:space="preserve">특이사항: </t>
+        </is>
+      </c>
+      <c r="R795" t="inlineStr"/>
+      <c r="S795" t="inlineStr"/>
+      <c r="T795" t="inlineStr"/>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C796" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D796" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E796" t="inlineStr"/>
+      <c r="F796" t="inlineStr">
+        <is>
+          <t>바닥 및 보 서포트 인상 작업</t>
+        </is>
+      </c>
+      <c r="G796" t="inlineStr"/>
+      <c r="H796" t="inlineStr"/>
+      <c r="I796" t="inlineStr"/>
+      <c r="J796" t="inlineStr"/>
+      <c r="K796" t="inlineStr"/>
+      <c r="L796" t="inlineStr"/>
+      <c r="M796" t="inlineStr"/>
+      <c r="N796" t="n">
+        <v>7</v>
+      </c>
+      <c r="O796" t="n">
+        <v>67</v>
+      </c>
+      <c r="P796" t="inlineStr">
+        <is>
+          <t>도급</t>
+        </is>
+      </c>
+      <c r="Q796" t="inlineStr">
+        <is>
+          <t xml:space="preserve">특이사항: </t>
+        </is>
+      </c>
+      <c r="R796" t="inlineStr"/>
+      <c r="S796" t="inlineStr"/>
+      <c r="T796" t="inlineStr"/>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C797" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D797" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E797" t="inlineStr"/>
+      <c r="F797" t="inlineStr">
+        <is>
+          <t>코어 벽체 자재 정리 작업</t>
+        </is>
+      </c>
+      <c r="G797" t="inlineStr"/>
+      <c r="H797" t="inlineStr"/>
+      <c r="I797" t="inlineStr"/>
+      <c r="J797" t="inlineStr"/>
+      <c r="K797" t="inlineStr"/>
+      <c r="L797" t="inlineStr"/>
+      <c r="M797" t="inlineStr"/>
+      <c r="N797" t="n">
+        <v>1</v>
+      </c>
+      <c r="O797" t="n">
+        <v>67</v>
+      </c>
+      <c r="P797" t="inlineStr">
+        <is>
+          <t>도급</t>
+        </is>
+      </c>
+      <c r="Q797" t="inlineStr">
+        <is>
+          <t xml:space="preserve">특이사항: </t>
+        </is>
+      </c>
+      <c r="R797" t="inlineStr"/>
+      <c r="S797" t="inlineStr"/>
+      <c r="T797" t="inlineStr"/>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C798" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D798" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E798" t="inlineStr"/>
+      <c r="F798" t="inlineStr">
+        <is>
+          <t>바닥 및 보 거푸집 작업</t>
+        </is>
+      </c>
+      <c r="G798" t="inlineStr"/>
+      <c r="H798" t="inlineStr"/>
+      <c r="I798" t="inlineStr"/>
+      <c r="J798" t="inlineStr"/>
+      <c r="K798" t="inlineStr"/>
+      <c r="L798" t="inlineStr"/>
+      <c r="M798" t="inlineStr"/>
+      <c r="N798" t="n">
+        <v>5</v>
+      </c>
+      <c r="O798" t="n">
+        <v>67</v>
+      </c>
+      <c r="P798" t="inlineStr">
+        <is>
+          <t>도급</t>
+        </is>
+      </c>
+      <c r="Q798" t="inlineStr">
+        <is>
+          <t xml:space="preserve">특이사항: </t>
+        </is>
+      </c>
+      <c r="R798" t="inlineStr"/>
+      <c r="S798" t="inlineStr"/>
+      <c r="T798" t="inlineStr"/>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C799" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D799" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E799" t="inlineStr"/>
+      <c r="F799" t="inlineStr">
+        <is>
+          <t>코어 벽체 거푸집 작업</t>
+        </is>
+      </c>
+      <c r="G799" t="inlineStr"/>
+      <c r="H799" t="inlineStr"/>
+      <c r="I799" t="inlineStr"/>
+      <c r="J799" t="inlineStr"/>
+      <c r="K799" t="inlineStr"/>
+      <c r="L799" t="inlineStr"/>
+      <c r="M799" t="inlineStr"/>
+      <c r="N799" t="n">
+        <v>9</v>
+      </c>
+      <c r="O799" t="n">
+        <v>67</v>
+      </c>
+      <c r="P799" t="inlineStr">
+        <is>
+          <t>도급</t>
+        </is>
+      </c>
+      <c r="Q799" t="inlineStr">
+        <is>
+          <t xml:space="preserve">특이사항: </t>
+        </is>
+      </c>
+      <c r="R799" t="inlineStr"/>
+      <c r="S799" t="inlineStr"/>
+      <c r="T799" t="inlineStr"/>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C800" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D800" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E800" t="inlineStr"/>
+      <c r="F800" t="inlineStr">
+        <is>
+          <t>기둥 거푸집 작업</t>
+        </is>
+      </c>
+      <c r="G800" t="inlineStr"/>
+      <c r="H800" t="inlineStr"/>
+      <c r="I800" t="inlineStr"/>
+      <c r="J800" t="inlineStr"/>
+      <c r="K800" t="inlineStr"/>
+      <c r="L800" t="inlineStr"/>
+      <c r="M800" t="inlineStr"/>
+      <c r="N800" t="n">
+        <v>5</v>
+      </c>
+      <c r="O800" t="n">
+        <v>67</v>
+      </c>
+      <c r="P800" t="inlineStr">
+        <is>
+          <t>도급</t>
+        </is>
+      </c>
+      <c r="Q800" t="inlineStr">
+        <is>
+          <t xml:space="preserve">특이사항: </t>
+        </is>
+      </c>
+      <c r="R800" t="inlineStr"/>
+      <c r="S800" t="inlineStr"/>
+      <c r="T800" t="inlineStr"/>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C801" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D801" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E801" t="inlineStr"/>
+      <c r="F801" t="inlineStr">
+        <is>
+          <t>바닥 및 보 거푸집 작업</t>
+        </is>
+      </c>
+      <c r="G801" t="inlineStr"/>
+      <c r="H801" t="inlineStr"/>
+      <c r="I801" t="inlineStr"/>
+      <c r="J801" t="inlineStr"/>
+      <c r="K801" t="inlineStr"/>
+      <c r="L801" t="inlineStr"/>
+      <c r="M801" t="inlineStr"/>
+      <c r="N801" t="n">
+        <v>20</v>
+      </c>
+      <c r="O801" t="n">
+        <v>67</v>
+      </c>
+      <c r="P801" t="inlineStr">
+        <is>
+          <t>도급</t>
+        </is>
+      </c>
+      <c r="Q801" t="inlineStr">
+        <is>
+          <t xml:space="preserve">특이사항: </t>
+        </is>
+      </c>
+      <c r="R801" t="inlineStr"/>
+      <c r="S801" t="inlineStr"/>
+      <c r="T801" t="inlineStr"/>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C802" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D802" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E802" t="inlineStr"/>
+      <c r="F802" t="inlineStr">
+        <is>
+          <t>코어 벽체 공구리망 작업</t>
+        </is>
+      </c>
+      <c r="G802" t="inlineStr"/>
+      <c r="H802" t="inlineStr"/>
+      <c r="I802" t="inlineStr"/>
+      <c r="J802" t="inlineStr"/>
+      <c r="K802" t="inlineStr"/>
+      <c r="L802" t="inlineStr"/>
+      <c r="M802" t="inlineStr"/>
+      <c r="N802" t="n">
+        <v>2</v>
+      </c>
+      <c r="O802" t="n">
+        <v>67</v>
+      </c>
+      <c r="P802" t="inlineStr">
+        <is>
+          <t>도급</t>
+        </is>
+      </c>
+      <c r="Q802" t="inlineStr">
+        <is>
+          <t xml:space="preserve">특이사항: </t>
+        </is>
+      </c>
+      <c r="R802" t="inlineStr"/>
+      <c r="S802" t="inlineStr"/>
+      <c r="T802" t="inlineStr"/>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C803" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D803" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E803" t="inlineStr"/>
+      <c r="F803" t="inlineStr">
+        <is>
+          <t>코어 벽체 EV실 수벽 및 계단 마감 작업</t>
+        </is>
+      </c>
+      <c r="G803" t="inlineStr"/>
+      <c r="H803" t="inlineStr"/>
+      <c r="I803" t="inlineStr"/>
+      <c r="J803" t="inlineStr"/>
+      <c r="K803" t="inlineStr"/>
+      <c r="L803" t="inlineStr"/>
+      <c r="M803" t="inlineStr"/>
+      <c r="N803" t="n">
+        <v>3</v>
+      </c>
+      <c r="O803" t="n">
+        <v>67</v>
+      </c>
+      <c r="P803" t="inlineStr">
+        <is>
+          <t xml:space="preserve">직영 </t>
+        </is>
+      </c>
+      <c r="Q803" t="inlineStr">
+        <is>
+          <t xml:space="preserve">특이사항: </t>
+        </is>
+      </c>
+      <c r="R803" t="inlineStr"/>
+      <c r="S803" t="inlineStr"/>
+      <c r="T803" t="inlineStr"/>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C804" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D804" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E804" t="inlineStr"/>
+      <c r="F804" t="inlineStr">
+        <is>
+          <t>갱폼   기리바리 및 하부 마감 작업</t>
+        </is>
+      </c>
+      <c r="G804" t="inlineStr"/>
+      <c r="H804" t="inlineStr"/>
+      <c r="I804" t="inlineStr"/>
+      <c r="J804" t="inlineStr"/>
+      <c r="K804" t="inlineStr"/>
+      <c r="L804" t="inlineStr"/>
+      <c r="M804" t="inlineStr"/>
+      <c r="N804" t="n">
+        <v>3</v>
+      </c>
+      <c r="O804" t="n">
+        <v>67</v>
+      </c>
+      <c r="P804" t="inlineStr">
+        <is>
+          <t xml:space="preserve">직영 </t>
+        </is>
+      </c>
+      <c r="Q804" t="inlineStr">
+        <is>
+          <t xml:space="preserve">특이사항: </t>
+        </is>
+      </c>
+      <c r="R804" t="inlineStr"/>
+      <c r="S804" t="inlineStr"/>
+      <c r="T804" t="inlineStr"/>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C805" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D805" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E805" t="inlineStr"/>
+      <c r="F805" t="inlineStr">
+        <is>
+          <t>코어 벽체 공구리망 작업</t>
+        </is>
+      </c>
+      <c r="G805" t="inlineStr"/>
+      <c r="H805" t="inlineStr"/>
+      <c r="I805" t="inlineStr"/>
+      <c r="J805" t="inlineStr"/>
+      <c r="K805" t="inlineStr"/>
+      <c r="L805" t="inlineStr"/>
+      <c r="M805" t="inlineStr"/>
+      <c r="N805" t="n">
+        <v>4</v>
+      </c>
+      <c r="O805" t="n">
+        <v>67</v>
+      </c>
+      <c r="P805" t="inlineStr">
+        <is>
+          <t xml:space="preserve">직영 </t>
+        </is>
+      </c>
+      <c r="Q805" t="inlineStr">
+        <is>
+          <t xml:space="preserve">특이사항: </t>
+        </is>
+      </c>
+      <c r="R805" t="inlineStr"/>
+      <c r="S805" t="inlineStr"/>
+      <c r="T805" t="inlineStr"/>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C806" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D806" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E806" t="inlineStr"/>
+      <c r="F806" t="inlineStr">
+        <is>
+          <t>코어 벽체 변화층 계단 작업</t>
+        </is>
+      </c>
+      <c r="G806" t="inlineStr"/>
+      <c r="H806" t="inlineStr"/>
+      <c r="I806" t="inlineStr"/>
+      <c r="J806" t="inlineStr"/>
+      <c r="K806" t="inlineStr"/>
+      <c r="L806" t="inlineStr"/>
+      <c r="M806" t="inlineStr"/>
+      <c r="N806" t="n">
+        <v>3</v>
+      </c>
+      <c r="O806" t="n">
+        <v>67</v>
+      </c>
+      <c r="P806" t="inlineStr">
+        <is>
+          <t xml:space="preserve">직영 </t>
+        </is>
+      </c>
+      <c r="Q806" t="inlineStr">
+        <is>
+          <t xml:space="preserve">특이사항: </t>
+        </is>
+      </c>
+      <c r="R806" t="inlineStr"/>
+      <c r="S806" t="inlineStr"/>
+      <c r="T806" t="inlineStr"/>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>2024-03-30</t>
+        </is>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C807" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D807" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E807" t="inlineStr"/>
+      <c r="F807" t="inlineStr">
+        <is>
+          <t>바닥 및 보 아기사리 작업</t>
+        </is>
+      </c>
+      <c r="G807" t="inlineStr"/>
+      <c r="H807" t="inlineStr"/>
+      <c r="I807" t="inlineStr"/>
+      <c r="J807" t="inlineStr"/>
+      <c r="K807" t="inlineStr"/>
+      <c r="L807" t="inlineStr"/>
+      <c r="M807" t="inlineStr"/>
+      <c r="N807" t="n">
+        <v>4</v>
+      </c>
+      <c r="O807" t="n">
+        <v>52</v>
+      </c>
+      <c r="P807" t="inlineStr">
+        <is>
+          <t>도급</t>
+        </is>
+      </c>
+      <c r="Q807" t="inlineStr">
+        <is>
+          <t>특이사항: 없음</t>
+        </is>
+      </c>
+      <c r="R807" t="inlineStr"/>
+      <c r="S807" t="inlineStr"/>
+      <c r="T807" t="inlineStr"/>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>2024-03-30</t>
+        </is>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C808" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D808" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E808" t="inlineStr"/>
+      <c r="F808" t="inlineStr">
+        <is>
+          <t>바닥 및 보 단열재 설치 작업</t>
+        </is>
+      </c>
+      <c r="G808" t="inlineStr"/>
+      <c r="H808" t="inlineStr"/>
+      <c r="I808" t="inlineStr"/>
+      <c r="J808" t="inlineStr"/>
+      <c r="K808" t="inlineStr"/>
+      <c r="L808" t="inlineStr"/>
+      <c r="M808" t="inlineStr"/>
+      <c r="N808" t="n">
+        <v>5</v>
+      </c>
+      <c r="O808" t="n">
+        <v>52</v>
+      </c>
+      <c r="P808" t="inlineStr">
+        <is>
+          <t>도급</t>
+        </is>
+      </c>
+      <c r="Q808" t="inlineStr">
+        <is>
+          <t>특이사항: 없음</t>
+        </is>
+      </c>
+      <c r="R808" t="inlineStr"/>
+      <c r="S808" t="inlineStr"/>
+      <c r="T808" t="inlineStr"/>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>2024-03-30</t>
+        </is>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C809" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D809" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E809" t="inlineStr"/>
+      <c r="F809" t="inlineStr">
+        <is>
+          <t>바닥 및 보 아기사리 작업</t>
+        </is>
+      </c>
+      <c r="G809" t="inlineStr"/>
+      <c r="H809" t="inlineStr"/>
+      <c r="I809" t="inlineStr"/>
+      <c r="J809" t="inlineStr"/>
+      <c r="K809" t="inlineStr"/>
+      <c r="L809" t="inlineStr"/>
+      <c r="M809" t="inlineStr"/>
+      <c r="N809" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O809" t="n">
+        <v>52</v>
+      </c>
+      <c r="P809" t="inlineStr">
+        <is>
+          <t>도급</t>
+        </is>
+      </c>
+      <c r="Q809" t="inlineStr">
+        <is>
+          <t>특이사항: 없음</t>
+        </is>
+      </c>
+      <c r="R809" t="inlineStr"/>
+      <c r="S809" t="inlineStr"/>
+      <c r="T809" t="inlineStr"/>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>2024-03-30</t>
+        </is>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C810" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D810" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E810" t="inlineStr"/>
+      <c r="F810" t="inlineStr">
+        <is>
+          <t>바닥 및 보  단열재 및 자재 양중 작업</t>
+        </is>
+      </c>
+      <c r="G810" t="inlineStr"/>
+      <c r="H810" t="inlineStr"/>
+      <c r="I810" t="inlineStr"/>
+      <c r="J810" t="inlineStr"/>
+      <c r="K810" t="inlineStr"/>
+      <c r="L810" t="inlineStr"/>
+      <c r="M810" t="inlineStr"/>
+      <c r="N810" t="n">
+        <v>1</v>
+      </c>
+      <c r="O810" t="n">
+        <v>52</v>
+      </c>
+      <c r="P810" t="inlineStr">
+        <is>
+          <t>도급</t>
+        </is>
+      </c>
+      <c r="Q810" t="inlineStr">
+        <is>
+          <t>특이사항: 없음</t>
+        </is>
+      </c>
+      <c r="R810" t="inlineStr"/>
+      <c r="S810" t="inlineStr"/>
+      <c r="T810" t="inlineStr"/>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>2024-03-30</t>
+        </is>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C811" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D811" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E811" t="inlineStr"/>
+      <c r="F811" t="inlineStr">
+        <is>
+          <t>기둥 거푸집 작업</t>
+        </is>
+      </c>
+      <c r="G811" t="inlineStr"/>
+      <c r="H811" t="inlineStr"/>
+      <c r="I811" t="inlineStr"/>
+      <c r="J811" t="inlineStr"/>
+      <c r="K811" t="inlineStr"/>
+      <c r="L811" t="inlineStr"/>
+      <c r="M811" t="inlineStr"/>
+      <c r="N811" t="n">
+        <v>5</v>
+      </c>
+      <c r="O811" t="n">
+        <v>52</v>
+      </c>
+      <c r="P811" t="inlineStr">
+        <is>
+          <t>도급</t>
+        </is>
+      </c>
+      <c r="Q811" t="inlineStr">
+        <is>
+          <t>특이사항: 없음</t>
+        </is>
+      </c>
+      <c r="R811" t="inlineStr"/>
+      <c r="S811" t="inlineStr"/>
+      <c r="T811" t="inlineStr"/>
+    </row>
+    <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>2024-03-30</t>
+        </is>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C812" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D812" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E812" t="inlineStr"/>
+      <c r="F812" t="inlineStr">
+        <is>
+          <t>바닥 및 보 거푸집 작업</t>
+        </is>
+      </c>
+      <c r="G812" t="inlineStr"/>
+      <c r="H812" t="inlineStr"/>
+      <c r="I812" t="inlineStr"/>
+      <c r="J812" t="inlineStr"/>
+      <c r="K812" t="inlineStr"/>
+      <c r="L812" t="inlineStr"/>
+      <c r="M812" t="inlineStr"/>
+      <c r="N812" t="n">
+        <v>17</v>
+      </c>
+      <c r="O812" t="n">
+        <v>52</v>
+      </c>
+      <c r="P812" t="inlineStr">
+        <is>
+          <t>도급</t>
+        </is>
+      </c>
+      <c r="Q812" t="inlineStr">
+        <is>
+          <t>특이사항: 없음</t>
+        </is>
+      </c>
+      <c r="R812" t="inlineStr"/>
+      <c r="S812" t="inlineStr"/>
+      <c r="T812" t="inlineStr"/>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>2024-03-30</t>
+        </is>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C813" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D813" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E813" t="inlineStr"/>
+      <c r="F813" t="inlineStr">
+        <is>
+          <t>바닥 및 보 거푸집 작업</t>
+        </is>
+      </c>
+      <c r="G813" t="inlineStr"/>
+      <c r="H813" t="inlineStr"/>
+      <c r="I813" t="inlineStr"/>
+      <c r="J813" t="inlineStr"/>
+      <c r="K813" t="inlineStr"/>
+      <c r="L813" t="inlineStr"/>
+      <c r="M813" t="inlineStr"/>
+      <c r="N813" t="n">
+        <v>3</v>
+      </c>
+      <c r="O813" t="n">
+        <v>52</v>
+      </c>
+      <c r="P813" t="inlineStr">
+        <is>
+          <t>도급</t>
+        </is>
+      </c>
+      <c r="Q813" t="inlineStr">
+        <is>
+          <t>특이사항: 없음</t>
+        </is>
+      </c>
+      <c r="R813" t="inlineStr"/>
+      <c r="S813" t="inlineStr"/>
+      <c r="T813" t="inlineStr"/>
+    </row>
+    <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>2024-03-30</t>
+        </is>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C814" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D814" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E814" t="inlineStr"/>
+      <c r="F814" t="inlineStr">
+        <is>
+          <t>코어 벽체 계단 작업</t>
+        </is>
+      </c>
+      <c r="G814" t="inlineStr"/>
+      <c r="H814" t="inlineStr"/>
+      <c r="I814" t="inlineStr"/>
+      <c r="J814" t="inlineStr"/>
+      <c r="K814" t="inlineStr"/>
+      <c r="L814" t="inlineStr"/>
+      <c r="M814" t="inlineStr"/>
+      <c r="N814" t="n">
+        <v>2</v>
+      </c>
+      <c r="O814" t="n">
+        <v>52</v>
+      </c>
+      <c r="P814" t="inlineStr">
+        <is>
+          <t xml:space="preserve">직영 </t>
+        </is>
+      </c>
+      <c r="Q814" t="inlineStr">
+        <is>
+          <t>특이사항: 없음</t>
+        </is>
+      </c>
+      <c r="R814" t="inlineStr"/>
+      <c r="S814" t="inlineStr"/>
+      <c r="T814" t="inlineStr"/>
+    </row>
+    <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t>2024-03-30</t>
+        </is>
+      </c>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C815" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D815" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E815" t="inlineStr"/>
+      <c r="F815" t="inlineStr">
+        <is>
+          <t>바닥 및 보 단열재 및 자재 양중 작업</t>
+        </is>
+      </c>
+      <c r="G815" t="inlineStr"/>
+      <c r="H815" t="inlineStr"/>
+      <c r="I815" t="inlineStr"/>
+      <c r="J815" t="inlineStr"/>
+      <c r="K815" t="inlineStr"/>
+      <c r="L815" t="inlineStr"/>
+      <c r="M815" t="inlineStr"/>
+      <c r="N815" t="n">
+        <v>2</v>
+      </c>
+      <c r="O815" t="n">
+        <v>52</v>
+      </c>
+      <c r="P815" t="inlineStr">
+        <is>
+          <t xml:space="preserve">직영 </t>
+        </is>
+      </c>
+      <c r="Q815" t="inlineStr">
+        <is>
+          <t>특이사항: 없음</t>
+        </is>
+      </c>
+      <c r="R815" t="inlineStr"/>
+      <c r="S815" t="inlineStr"/>
+      <c r="T815" t="inlineStr"/>
+    </row>
+    <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>2024-03-30</t>
+        </is>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C816" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D816" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E816" t="inlineStr"/>
+      <c r="F816" t="inlineStr">
+        <is>
+          <t>기둥 제작 작업</t>
+        </is>
+      </c>
+      <c r="G816" t="inlineStr"/>
+      <c r="H816" t="inlineStr"/>
+      <c r="I816" t="inlineStr"/>
+      <c r="J816" t="inlineStr"/>
+      <c r="K816" t="inlineStr"/>
+      <c r="L816" t="inlineStr"/>
+      <c r="M816" t="inlineStr"/>
+      <c r="N816" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O816" t="n">
+        <v>52</v>
+      </c>
+      <c r="P816" t="inlineStr">
+        <is>
+          <t xml:space="preserve">직영 </t>
+        </is>
+      </c>
+      <c r="Q816" t="inlineStr">
+        <is>
+          <t>특이사항: 없음</t>
+        </is>
+      </c>
+      <c r="R816" t="inlineStr"/>
+      <c r="S816" t="inlineStr"/>
+      <c r="T816" t="inlineStr"/>
+    </row>
+    <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>2024-03-30</t>
+        </is>
+      </c>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C817" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D817" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E817" t="inlineStr"/>
+      <c r="F817" t="inlineStr">
+        <is>
+          <t>바닥 및 보 제작 작업</t>
+        </is>
+      </c>
+      <c r="G817" t="inlineStr"/>
+      <c r="H817" t="inlineStr"/>
+      <c r="I817" t="inlineStr"/>
+      <c r="J817" t="inlineStr"/>
+      <c r="K817" t="inlineStr"/>
+      <c r="L817" t="inlineStr"/>
+      <c r="M817" t="inlineStr"/>
+      <c r="N817" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O817" t="n">
+        <v>52</v>
+      </c>
+      <c r="P817" t="inlineStr">
+        <is>
+          <t xml:space="preserve">직영 </t>
+        </is>
+      </c>
+      <c r="Q817" t="inlineStr">
+        <is>
+          <t>특이사항: 없음</t>
+        </is>
+      </c>
+      <c r="R817" t="inlineStr"/>
+      <c r="S817" t="inlineStr"/>
+      <c r="T817" t="inlineStr"/>
+    </row>
+    <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t>2024-03-30</t>
+        </is>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C818" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D818" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E818" t="inlineStr"/>
+      <c r="F818" t="inlineStr">
+        <is>
+          <t>파라펫 기준목 설치 및 거푸집 작업</t>
+        </is>
+      </c>
+      <c r="G818" t="inlineStr"/>
+      <c r="H818" t="inlineStr"/>
+      <c r="I818" t="inlineStr"/>
+      <c r="J818" t="inlineStr"/>
+      <c r="K818" t="inlineStr"/>
+      <c r="L818" t="inlineStr"/>
+      <c r="M818" t="inlineStr"/>
+      <c r="N818" t="n">
+        <v>4</v>
+      </c>
+      <c r="O818" t="n">
+        <v>52</v>
+      </c>
+      <c r="P818" t="inlineStr">
+        <is>
+          <t xml:space="preserve">직영 </t>
+        </is>
+      </c>
+      <c r="Q818" t="inlineStr">
+        <is>
+          <t>특이사항: 없음</t>
+        </is>
+      </c>
+      <c r="R818" t="inlineStr"/>
+      <c r="S818" t="inlineStr"/>
+      <c r="T818" t="inlineStr"/>
+    </row>
+    <row r="819">
+      <c r="A819" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C819" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D819" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E819" t="inlineStr"/>
+      <c r="F819" t="inlineStr">
+        <is>
+          <t>코어 2번 하부 볼트, 기리바리 작업</t>
+        </is>
+      </c>
+      <c r="G819" t="inlineStr"/>
+      <c r="H819" t="inlineStr"/>
+      <c r="I819" t="inlineStr"/>
+      <c r="J819" t="inlineStr"/>
+      <c r="K819" t="inlineStr"/>
+      <c r="L819" t="inlineStr"/>
+      <c r="M819" t="inlineStr"/>
+      <c r="N819" t="n">
+        <v>4</v>
+      </c>
+      <c r="O819" t="n">
+        <v>23</v>
+      </c>
+      <c r="P819" t="inlineStr">
+        <is>
+          <t>도급</t>
+        </is>
+      </c>
+      <c r="Q819" t="inlineStr">
+        <is>
+          <t>특이사항: 2,3번 코아 3월 11일 타설 예정</t>
+        </is>
+      </c>
+      <c r="R819" t="inlineStr"/>
+      <c r="S819" t="inlineStr"/>
+      <c r="T819" t="inlineStr"/>
+    </row>
+    <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C820" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D820" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E820" t="inlineStr"/>
+      <c r="F820" t="inlineStr">
+        <is>
+          <t>코어 계단실 작업</t>
+        </is>
+      </c>
+      <c r="G820" t="inlineStr"/>
+      <c r="H820" t="inlineStr"/>
+      <c r="I820" t="inlineStr"/>
+      <c r="J820" t="inlineStr"/>
+      <c r="K820" t="inlineStr"/>
+      <c r="L820" t="inlineStr"/>
+      <c r="M820" t="inlineStr"/>
+      <c r="N820" t="n">
+        <v>2</v>
+      </c>
+      <c r="O820" t="n">
+        <v>23</v>
+      </c>
+      <c r="P820" t="inlineStr">
+        <is>
+          <t>도급</t>
+        </is>
+      </c>
+      <c r="Q820" t="inlineStr">
+        <is>
+          <t>특이사항: 2,3번 코아 3월 11일 타설 예정</t>
+        </is>
+      </c>
+      <c r="R820" t="inlineStr"/>
+      <c r="S820" t="inlineStr"/>
+      <c r="T820" t="inlineStr"/>
+    </row>
+    <row r="821">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="C821" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D821" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E821" t="inlineStr"/>
+      <c r="F821" t="inlineStr">
+        <is>
+          <t>코어 1번 공구리망 작업</t>
+        </is>
+      </c>
+      <c r="G821" t="inlineStr"/>
+      <c r="H821" t="inlineStr"/>
+      <c r="I821" t="inlineStr"/>
+      <c r="J821" t="inlineStr"/>
+      <c r="K821" t="inlineStr"/>
+      <c r="L821" t="inlineStr"/>
+      <c r="M821" t="inlineStr"/>
+      <c r="N821" t="n">
+        <v>2</v>
+      </c>
+      <c r="O821" t="n">
+        <v>23</v>
+      </c>
+      <c r="P821" t="inlineStr">
+        <is>
+          <t>도급</t>
+        </is>
+      </c>
+      <c r="Q821" t="inlineStr">
+        <is>
+          <t>특이사항: 2,3번 코아 3월 11일 타설 예정</t>
+        </is>
+      </c>
+      <c r="R821" t="inlineStr"/>
+      <c r="S821" t="inlineStr"/>
+      <c r="T821" t="inlineStr"/>
+    </row>
+    <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="C822" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D822" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E822" t="inlineStr"/>
+      <c r="F822" t="inlineStr">
+        <is>
+          <t>코어 3번 공구리망 작업</t>
+        </is>
+      </c>
+      <c r="G822" t="inlineStr"/>
+      <c r="H822" t="inlineStr"/>
+      <c r="I822" t="inlineStr"/>
+      <c r="J822" t="inlineStr"/>
+      <c r="K822" t="inlineStr"/>
+      <c r="L822" t="inlineStr"/>
+      <c r="M822" t="inlineStr"/>
+      <c r="N822" t="n">
+        <v>1</v>
+      </c>
+      <c r="O822" t="n">
+        <v>23</v>
+      </c>
+      <c r="P822" t="inlineStr">
+        <is>
+          <t>도급</t>
+        </is>
+      </c>
+      <c r="Q822" t="inlineStr">
+        <is>
+          <t>특이사항: 2,3번 코아 3월 11일 타설 예정</t>
+        </is>
+      </c>
+      <c r="R822" t="inlineStr"/>
+      <c r="S822" t="inlineStr"/>
+      <c r="T822" t="inlineStr"/>
+    </row>
+    <row r="823">
+      <c r="A823" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="C823" t="inlineStr">
+        <is>
+          <t>기타</t>
+        </is>
+      </c>
+      <c r="D823" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E823" t="inlineStr"/>
+      <c r="F823" t="inlineStr">
+        <is>
+          <t>바닥 및 보 잭 서포트 설치 작업(B3F &gt; B2F로 올린 후 설치)</t>
+        </is>
+      </c>
+      <c r="G823" t="inlineStr"/>
+      <c r="H823" t="inlineStr"/>
+      <c r="I823" t="inlineStr"/>
+      <c r="J823" t="inlineStr"/>
+      <c r="K823" t="inlineStr"/>
+      <c r="L823" t="inlineStr"/>
+      <c r="M823" t="inlineStr"/>
+      <c r="N823" t="n">
+        <v>10</v>
+      </c>
+      <c r="O823" t="n">
+        <v>23</v>
+      </c>
+      <c r="P823" t="inlineStr">
+        <is>
+          <t>직영</t>
+        </is>
+      </c>
+      <c r="Q823" t="inlineStr">
+        <is>
+          <t>특이사항: 2,3번 코아 3월 11일 타설 예정</t>
+        </is>
+      </c>
+      <c r="R823" t="inlineStr"/>
+      <c r="S823" t="inlineStr"/>
+      <c r="T823" t="inlineStr"/>
+    </row>
+    <row r="824">
+      <c r="A824" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B824" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C824" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D824" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E824" t="inlineStr"/>
+      <c r="F824" t="inlineStr">
+        <is>
+          <t>코어 2번 주변 자재 정리 및 양중 작업(시스템 자재 받을 자리 확보, 장소장님 지시)</t>
+        </is>
+      </c>
+      <c r="G824" t="inlineStr"/>
+      <c r="H824" t="inlineStr"/>
+      <c r="I824" t="inlineStr"/>
+      <c r="J824" t="inlineStr"/>
+      <c r="K824" t="inlineStr"/>
+      <c r="L824" t="inlineStr"/>
+      <c r="M824" t="inlineStr"/>
+      <c r="N824" t="n">
+        <v>3</v>
+      </c>
+      <c r="O824" t="n">
+        <v>23</v>
+      </c>
+      <c r="P824" t="inlineStr">
+        <is>
+          <t>직영</t>
+        </is>
+      </c>
+      <c r="Q824" t="inlineStr">
+        <is>
+          <t>특이사항: 2,3번 코아 3월 11일 타설 예정</t>
+        </is>
+      </c>
+      <c r="R824" t="inlineStr"/>
+      <c r="S824" t="inlineStr"/>
+      <c r="T824" t="inlineStr"/>
+    </row>
+    <row r="825">
+      <c r="A825" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B825" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="C825" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D825" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E825" t="inlineStr"/>
+      <c r="F825" t="inlineStr">
+        <is>
+          <t>램프 2번 및 DA실 공구리망 작업</t>
+        </is>
+      </c>
+      <c r="G825" t="inlineStr"/>
+      <c r="H825" t="inlineStr"/>
+      <c r="I825" t="inlineStr"/>
+      <c r="J825" t="inlineStr"/>
+      <c r="K825" t="inlineStr"/>
+      <c r="L825" t="inlineStr"/>
+      <c r="M825" t="inlineStr"/>
+      <c r="N825" t="n">
+        <v>1</v>
+      </c>
+      <c r="O825" t="n">
+        <v>23</v>
+      </c>
+      <c r="P825" t="inlineStr">
+        <is>
+          <t>직영</t>
+        </is>
+      </c>
+      <c r="Q825" t="inlineStr">
+        <is>
+          <t>특이사항: 2,3번 코아 3월 11일 타설 예정</t>
+        </is>
+      </c>
+      <c r="R825" t="inlineStr"/>
+      <c r="S825" t="inlineStr"/>
+      <c r="T825" t="inlineStr"/>
+    </row>
+    <row r="826">
+      <c r="A826" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C826" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D826" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E826" t="inlineStr"/>
+      <c r="F826" t="inlineStr">
+        <is>
+          <t>코어 계단실 작업</t>
+        </is>
+      </c>
+      <c r="G826" t="inlineStr"/>
+      <c r="H826" t="inlineStr"/>
+      <c r="I826" t="inlineStr"/>
+      <c r="J826" t="inlineStr"/>
+      <c r="K826" t="inlineStr"/>
+      <c r="L826" t="inlineStr"/>
+      <c r="M826" t="inlineStr"/>
+      <c r="N826" t="n">
+        <v>2</v>
+      </c>
+      <c r="O826" t="n">
+        <v>2</v>
+      </c>
+      <c r="P826" t="inlineStr">
+        <is>
+          <t>도급</t>
+        </is>
+      </c>
+      <c r="Q826" t="inlineStr"/>
+      <c r="R826" t="inlineStr"/>
+      <c r="S826" t="inlineStr"/>
+      <c r="T826" t="inlineStr"/>
+    </row>
+    <row r="827">
+      <c r="A827" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B827" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C827" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D827" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E827" t="inlineStr"/>
+      <c r="F827" t="inlineStr">
+        <is>
+          <t>코어 계단실 작업</t>
+        </is>
+      </c>
+      <c r="G827" t="inlineStr"/>
+      <c r="H827" t="inlineStr"/>
+      <c r="I827" t="inlineStr"/>
+      <c r="J827" t="inlineStr"/>
+      <c r="K827" t="inlineStr"/>
+      <c r="L827" t="inlineStr"/>
+      <c r="M827" t="inlineStr"/>
+      <c r="N827" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O827" t="n">
+        <v>10</v>
+      </c>
+      <c r="P827" t="inlineStr">
+        <is>
+          <t>도급</t>
+        </is>
+      </c>
+      <c r="Q827" t="inlineStr">
+        <is>
+          <t>특이사항: 박에브게니 0.7 공수</t>
+        </is>
+      </c>
+      <c r="R827" t="inlineStr"/>
+      <c r="S827" t="inlineStr"/>
+      <c r="T827" t="inlineStr"/>
+    </row>
+    <row r="828">
+      <c r="A828" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B828" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C828" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D828" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E828" t="inlineStr"/>
+      <c r="F828" t="inlineStr">
+        <is>
+          <t xml:space="preserve">코어 2번 게이트 쪽 낮은 구간 EPS 작업  </t>
+        </is>
+      </c>
+      <c r="G828" t="inlineStr"/>
+      <c r="H828" t="inlineStr"/>
+      <c r="I828" t="inlineStr"/>
+      <c r="J828" t="inlineStr"/>
+      <c r="K828" t="inlineStr"/>
+      <c r="L828" t="inlineStr"/>
+      <c r="M828" t="inlineStr"/>
+      <c r="N828" t="n">
+        <v>2</v>
+      </c>
+      <c r="O828" t="n">
+        <v>10</v>
+      </c>
+      <c r="P828" t="inlineStr">
+        <is>
+          <t>직영</t>
+        </is>
+      </c>
+      <c r="Q828" t="inlineStr">
+        <is>
+          <t>특이사항: 박에브게니 0.7 공수</t>
+        </is>
+      </c>
+      <c r="R828" t="inlineStr"/>
+      <c r="S828" t="inlineStr"/>
+      <c r="T828" t="inlineStr"/>
+    </row>
+    <row r="829">
+      <c r="A829" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B829" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="C829" t="inlineStr">
+        <is>
+          <t>기타</t>
+        </is>
+      </c>
+      <c r="D829" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E829" t="inlineStr"/>
+      <c r="F829" t="inlineStr">
+        <is>
+          <t>바닥 및 보 잭 서포트 추가 설치 작업</t>
+        </is>
+      </c>
+      <c r="G829" t="inlineStr"/>
+      <c r="H829" t="inlineStr"/>
+      <c r="I829" t="inlineStr"/>
+      <c r="J829" t="inlineStr"/>
+      <c r="K829" t="inlineStr"/>
+      <c r="L829" t="inlineStr"/>
+      <c r="M829" t="inlineStr"/>
+      <c r="N829" t="n">
+        <v>4</v>
+      </c>
+      <c r="O829" t="n">
+        <v>10</v>
+      </c>
+      <c r="P829" t="inlineStr">
+        <is>
+          <t>직영</t>
+        </is>
+      </c>
+      <c r="Q829" t="inlineStr">
+        <is>
+          <t>특이사항: 박에브게니 0.7 공수</t>
+        </is>
+      </c>
+      <c r="R829" t="inlineStr"/>
+      <c r="S829" t="inlineStr"/>
+      <c r="T829" t="inlineStr"/>
+    </row>
+    <row r="830">
+      <c r="A830" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B830" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="C830" t="inlineStr">
+        <is>
+          <t>기타</t>
+        </is>
+      </c>
+      <c r="D830" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E830" t="inlineStr"/>
+      <c r="F830" t="inlineStr">
+        <is>
+          <t>바닥 및 보 서포트 수직도 손보기 작업</t>
+        </is>
+      </c>
+      <c r="G830" t="inlineStr"/>
+      <c r="H830" t="inlineStr"/>
+      <c r="I830" t="inlineStr"/>
+      <c r="J830" t="inlineStr"/>
+      <c r="K830" t="inlineStr"/>
+      <c r="L830" t="inlineStr"/>
+      <c r="M830" t="inlineStr"/>
+      <c r="N830" t="n">
+        <v>1</v>
+      </c>
+      <c r="O830" t="n">
+        <v>10</v>
+      </c>
+      <c r="P830" t="inlineStr">
+        <is>
+          <t>직영</t>
+        </is>
+      </c>
+      <c r="Q830" t="inlineStr">
+        <is>
+          <t>특이사항: 박에브게니 0.7 공수</t>
+        </is>
+      </c>
+      <c r="R830" t="inlineStr"/>
+      <c r="S830" t="inlineStr"/>
+      <c r="T830" t="inlineStr"/>
+    </row>
+    <row r="831">
+      <c r="A831" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B831" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="C831" t="inlineStr">
+        <is>
+          <t>기타</t>
+        </is>
+      </c>
+      <c r="D831" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E831" t="inlineStr"/>
+      <c r="F831" t="inlineStr">
+        <is>
+          <t>바닥 및 보 H빔 자리 타설 완료 구간 서포트 및 거푸집 해체 작업</t>
+        </is>
+      </c>
+      <c r="G831" t="inlineStr"/>
+      <c r="H831" t="inlineStr"/>
+      <c r="I831" t="inlineStr"/>
+      <c r="J831" t="inlineStr"/>
+      <c r="K831" t="inlineStr"/>
+      <c r="L831" t="inlineStr"/>
+      <c r="M831" t="inlineStr"/>
+      <c r="N831" t="n">
+        <v>1</v>
+      </c>
+      <c r="O831" t="n">
+        <v>10</v>
+      </c>
+      <c r="P831" t="inlineStr">
+        <is>
+          <t>직영</t>
+        </is>
+      </c>
+      <c r="Q831" t="inlineStr">
+        <is>
+          <t>특이사항: 박에브게니 0.7 공수</t>
+        </is>
+      </c>
+      <c r="R831" t="inlineStr"/>
+      <c r="S831" t="inlineStr"/>
+      <c r="T831" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/static/data/작업공수/작업입력.xlsx
+++ b/static/data/작업공수/작업입력.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T831"/>
+  <dimension ref="A1:T832"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47045,6 +47045,60 @@
       <c r="S831" t="inlineStr"/>
       <c r="T831" t="inlineStr"/>
     </row>
+    <row r="832">
+      <c r="A832" t="inlineStr">
+        <is>
+          <t>2024-11-15</t>
+        </is>
+      </c>
+      <c r="B832" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C832" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D832" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="E832" t="inlineStr"/>
+      <c r="F832" t="inlineStr">
+        <is>
+          <t>코어 벽체 부분 해체 기준목 설치 작업</t>
+        </is>
+      </c>
+      <c r="G832" t="inlineStr"/>
+      <c r="H832" t="inlineStr"/>
+      <c r="I832" t="inlineStr"/>
+      <c r="J832" t="inlineStr"/>
+      <c r="K832" t="inlineStr"/>
+      <c r="L832" t="inlineStr"/>
+      <c r="M832" t="inlineStr"/>
+      <c r="N832" t="n">
+        <v>3</v>
+      </c>
+      <c r="O832" t="n">
+        <v>3</v>
+      </c>
+      <c r="P832" t="inlineStr">
+        <is>
+          <t xml:space="preserve">직영 </t>
+        </is>
+      </c>
+      <c r="Q832" t="inlineStr">
+        <is>
+          <t>특이사항: 특이사항 없음</t>
+        </is>
+      </c>
+      <c r="R832" t="inlineStr"/>
+      <c r="S832" t="inlineStr"/>
+      <c r="T832" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/static/data/작업공수/작업입력.xlsx
+++ b/static/data/작업공수/작업입력.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V803"/>
+  <dimension ref="A1:V805"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53545,6 +53545,134 @@
         </is>
       </c>
     </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>2024-12-29</t>
+        </is>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>김포</t>
+        </is>
+      </c>
+      <c r="C804" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+      <c r="D804" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E804" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="F804" t="inlineStr"/>
+      <c r="G804" t="inlineStr">
+        <is>
+          <t>램프 슬라브 설치</t>
+        </is>
+      </c>
+      <c r="H804" t="inlineStr"/>
+      <c r="I804" t="inlineStr"/>
+      <c r="J804" t="inlineStr"/>
+      <c r="K804" t="inlineStr"/>
+      <c r="L804" t="inlineStr"/>
+      <c r="M804" t="inlineStr"/>
+      <c r="N804" t="inlineStr"/>
+      <c r="O804" t="n">
+        <v>5</v>
+      </c>
+      <c r="P804" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q804" t="inlineStr">
+        <is>
+          <t>도급</t>
+        </is>
+      </c>
+      <c r="R804" t="inlineStr">
+        <is>
+          <t>특이사항: 명일 타설</t>
+        </is>
+      </c>
+      <c r="S804" t="inlineStr"/>
+      <c r="T804" t="inlineStr"/>
+      <c r="U804" t="inlineStr"/>
+      <c r="V804" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>2024-12-29</t>
+        </is>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>김포</t>
+        </is>
+      </c>
+      <c r="C805" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+      <c r="D805" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E805" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="F805" t="inlineStr"/>
+      <c r="G805" t="inlineStr">
+        <is>
+          <t>램프 슬라브 설치</t>
+        </is>
+      </c>
+      <c r="H805" t="inlineStr"/>
+      <c r="I805" t="inlineStr"/>
+      <c r="J805" t="inlineStr"/>
+      <c r="K805" t="inlineStr"/>
+      <c r="L805" t="inlineStr"/>
+      <c r="M805" t="inlineStr"/>
+      <c r="N805" t="inlineStr"/>
+      <c r="O805" t="n">
+        <v>5</v>
+      </c>
+      <c r="P805" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q805" t="inlineStr">
+        <is>
+          <t>도급</t>
+        </is>
+      </c>
+      <c r="R805" t="inlineStr">
+        <is>
+          <t>특이사항: 명일 타설</t>
+        </is>
+      </c>
+      <c r="S805" t="inlineStr"/>
+      <c r="T805" t="inlineStr"/>
+      <c r="U805" t="inlineStr"/>
+      <c r="V805" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/static/data/작업공수/작업입력.xlsx
+++ b/static/data/작업공수/작업입력.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V805"/>
+  <dimension ref="A1:V808"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53612,7 +53612,7 @@
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>2024-12-29</t>
+          <t>2024-12-30</t>
         </is>
       </c>
       <c r="B805" t="inlineStr">
@@ -53622,12 +53622,12 @@
       </c>
       <c r="C805" t="inlineStr">
         <is>
-          <t>B4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D805" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E805" t="inlineStr">
@@ -53638,7 +53638,7 @@
       <c r="F805" t="inlineStr"/>
       <c r="G805" t="inlineStr">
         <is>
-          <t>램프 슬라브 설치</t>
+          <t>코어 본관동 옥탑 사무동 패드 및 난간 작업</t>
         </is>
       </c>
       <c r="H805" t="inlineStr"/>
@@ -53649,7 +53649,7 @@
       <c r="M805" t="inlineStr"/>
       <c r="N805" t="inlineStr"/>
       <c r="O805" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P805" t="n">
         <v>3</v>
@@ -53659,11 +53659,7 @@
           <t>도급</t>
         </is>
       </c>
-      <c r="R805" t="inlineStr">
-        <is>
-          <t>특이사항: 명일 타설</t>
-        </is>
-      </c>
+      <c r="R805" t="inlineStr"/>
       <c r="S805" t="inlineStr"/>
       <c r="T805" t="inlineStr"/>
       <c r="U805" t="inlineStr"/>
@@ -53673,6 +53669,186 @@
         </is>
       </c>
     </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>2024-12-30</t>
+        </is>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>김포</t>
+        </is>
+      </c>
+      <c r="C806" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="D806" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E806" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="F806" t="inlineStr"/>
+      <c r="G806" t="inlineStr">
+        <is>
+          <t>램프 1번, 3번 램프 작업</t>
+        </is>
+      </c>
+      <c r="H806" t="inlineStr"/>
+      <c r="I806" t="inlineStr"/>
+      <c r="J806" t="inlineStr"/>
+      <c r="K806" t="inlineStr"/>
+      <c r="L806" t="inlineStr"/>
+      <c r="M806" t="inlineStr"/>
+      <c r="N806" t="inlineStr"/>
+      <c r="O806" t="n">
+        <v>3</v>
+      </c>
+      <c r="P806" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q806" t="inlineStr">
+        <is>
+          <t>도급</t>
+        </is>
+      </c>
+      <c r="R806" t="inlineStr"/>
+      <c r="S806" t="inlineStr"/>
+      <c r="T806" t="inlineStr"/>
+      <c r="U806" t="inlineStr"/>
+      <c r="V806" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>2024-12-30</t>
+        </is>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>김포</t>
+        </is>
+      </c>
+      <c r="C807" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="D807" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E807" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="F807" t="inlineStr"/>
+      <c r="G807" t="inlineStr">
+        <is>
+          <t>램프 1번, 보 제작, 슬라브 작업</t>
+        </is>
+      </c>
+      <c r="H807" t="inlineStr"/>
+      <c r="I807" t="inlineStr"/>
+      <c r="J807" t="inlineStr"/>
+      <c r="K807" t="inlineStr"/>
+      <c r="L807" t="inlineStr"/>
+      <c r="M807" t="inlineStr"/>
+      <c r="N807" t="inlineStr"/>
+      <c r="O807" t="n">
+        <v>4</v>
+      </c>
+      <c r="P807" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q807" t="inlineStr">
+        <is>
+          <t>도급</t>
+        </is>
+      </c>
+      <c r="R807" t="inlineStr"/>
+      <c r="S807" t="inlineStr"/>
+      <c r="T807" t="inlineStr"/>
+      <c r="U807" t="inlineStr"/>
+      <c r="V807" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>2024-12-30</t>
+        </is>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>김포</t>
+        </is>
+      </c>
+      <c r="C808" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="D808" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E808" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="F808" t="inlineStr"/>
+      <c r="G808" t="inlineStr">
+        <is>
+          <t>코어 공구리망 작업</t>
+        </is>
+      </c>
+      <c r="H808" t="inlineStr"/>
+      <c r="I808" t="inlineStr"/>
+      <c r="J808" t="inlineStr"/>
+      <c r="K808" t="inlineStr"/>
+      <c r="L808" t="inlineStr"/>
+      <c r="M808" t="inlineStr"/>
+      <c r="N808" t="inlineStr"/>
+      <c r="O808" t="n">
+        <v>4</v>
+      </c>
+      <c r="P808" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q808" t="inlineStr">
+        <is>
+          <t>도급</t>
+        </is>
+      </c>
+      <c r="R808" t="inlineStr"/>
+      <c r="S808" t="inlineStr"/>
+      <c r="T808" t="inlineStr"/>
+      <c r="U808" t="inlineStr"/>
+      <c r="V808" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/static/data/작업공수/작업입력.xlsx
+++ b/static/data/작업공수/작업입력.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V808"/>
+  <dimension ref="A1:V811"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53849,6 +53849,186 @@
         </is>
       </c>
     </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>2025-01-03</t>
+        </is>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>마곡</t>
+        </is>
+      </c>
+      <c r="C809" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D809" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E809" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="F809" t="inlineStr"/>
+      <c r="G809" t="inlineStr">
+        <is>
+          <t>바닥 및 보 거푸집 설치</t>
+        </is>
+      </c>
+      <c r="H809" t="inlineStr"/>
+      <c r="I809" t="inlineStr"/>
+      <c r="J809" t="inlineStr"/>
+      <c r="K809" t="inlineStr"/>
+      <c r="L809" t="inlineStr"/>
+      <c r="M809" t="inlineStr"/>
+      <c r="N809" t="inlineStr"/>
+      <c r="O809" t="n">
+        <v>4</v>
+      </c>
+      <c r="P809" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q809" t="inlineStr">
+        <is>
+          <t>도급</t>
+        </is>
+      </c>
+      <c r="R809" t="inlineStr"/>
+      <c r="S809" t="inlineStr"/>
+      <c r="T809" t="inlineStr"/>
+      <c r="U809" t="inlineStr"/>
+      <c r="V809" t="inlineStr">
+        <is>
+          <t>65%</t>
+        </is>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>2025-01-03</t>
+        </is>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>마곡</t>
+        </is>
+      </c>
+      <c r="C810" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D810" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E810" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="F810" t="inlineStr"/>
+      <c r="G810" t="inlineStr">
+        <is>
+          <t>코어 벽체  알폼 자재 양중 작업</t>
+        </is>
+      </c>
+      <c r="H810" t="inlineStr"/>
+      <c r="I810" t="inlineStr"/>
+      <c r="J810" t="inlineStr"/>
+      <c r="K810" t="inlineStr"/>
+      <c r="L810" t="inlineStr"/>
+      <c r="M810" t="inlineStr"/>
+      <c r="N810" t="inlineStr"/>
+      <c r="O810" t="n">
+        <v>4</v>
+      </c>
+      <c r="P810" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q810" t="inlineStr">
+        <is>
+          <t>도급</t>
+        </is>
+      </c>
+      <c r="R810" t="inlineStr"/>
+      <c r="S810" t="inlineStr"/>
+      <c r="T810" t="inlineStr"/>
+      <c r="U810" t="inlineStr"/>
+      <c r="V810" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>2025-01-03</t>
+        </is>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>마곡</t>
+        </is>
+      </c>
+      <c r="C811" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D811" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E811" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="F811" t="inlineStr"/>
+      <c r="G811" t="inlineStr">
+        <is>
+          <t>코어 벽체  알폼 자재 양중 작업</t>
+        </is>
+      </c>
+      <c r="H811" t="inlineStr"/>
+      <c r="I811" t="inlineStr"/>
+      <c r="J811" t="inlineStr"/>
+      <c r="K811" t="inlineStr"/>
+      <c r="L811" t="inlineStr"/>
+      <c r="M811" t="inlineStr"/>
+      <c r="N811" t="inlineStr"/>
+      <c r="O811" t="n">
+        <v>4</v>
+      </c>
+      <c r="P811" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q811" t="inlineStr">
+        <is>
+          <t>도급</t>
+        </is>
+      </c>
+      <c r="R811" t="inlineStr"/>
+      <c r="S811" t="inlineStr"/>
+      <c r="T811" t="inlineStr"/>
+      <c r="U811" t="inlineStr"/>
+      <c r="V811" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/static/data/작업공수/작업입력.xlsx
+++ b/static/data/작업공수/작업입력.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V811"/>
+  <dimension ref="A1:V813"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54029,6 +54029,126 @@
         </is>
       </c>
     </row>
+    <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>2025-01-12</t>
+        </is>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>마곡</t>
+        </is>
+      </c>
+      <c r="C812" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D812" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E812" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="F812" t="inlineStr"/>
+      <c r="G812" t="inlineStr">
+        <is>
+          <t>바닥 및 보 서포트 해체 작업</t>
+        </is>
+      </c>
+      <c r="H812" t="inlineStr"/>
+      <c r="I812" t="inlineStr"/>
+      <c r="J812" t="inlineStr"/>
+      <c r="K812" t="inlineStr"/>
+      <c r="L812" t="inlineStr"/>
+      <c r="M812" t="inlineStr"/>
+      <c r="N812" t="inlineStr"/>
+      <c r="O812" t="n">
+        <v>3</v>
+      </c>
+      <c r="P812" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q812" t="inlineStr">
+        <is>
+          <t xml:space="preserve">직영 </t>
+        </is>
+      </c>
+      <c r="R812" t="inlineStr"/>
+      <c r="S812" t="inlineStr"/>
+      <c r="T812" t="inlineStr"/>
+      <c r="U812" t="inlineStr"/>
+      <c r="V812" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>2025-01-12</t>
+        </is>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>마곡</t>
+        </is>
+      </c>
+      <c r="C813" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D813" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E813" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="F813" t="inlineStr"/>
+      <c r="G813" t="inlineStr">
+        <is>
+          <t>코어 벽체 하부자키 및 요꼬 다대 작업</t>
+        </is>
+      </c>
+      <c r="H813" t="inlineStr"/>
+      <c r="I813" t="inlineStr"/>
+      <c r="J813" t="inlineStr"/>
+      <c r="K813" t="inlineStr"/>
+      <c r="L813" t="inlineStr"/>
+      <c r="M813" t="inlineStr"/>
+      <c r="N813" t="inlineStr"/>
+      <c r="O813" t="n">
+        <v>1</v>
+      </c>
+      <c r="P813" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q813" t="inlineStr">
+        <is>
+          <t>도급</t>
+        </is>
+      </c>
+      <c r="R813" t="inlineStr"/>
+      <c r="S813" t="inlineStr"/>
+      <c r="T813" t="inlineStr"/>
+      <c r="U813" t="inlineStr"/>
+      <c r="V813" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/static/data/작업공수/작업입력.xlsx
+++ b/static/data/작업공수/작업입력.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows11\OneDrive\문서\GitHub\Dong.github.io\static\data\작업공수\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581B6D3A-D4CC-4C99-BD65-B39AE80F38B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A55D1D-AA82-450A-86E4-6CEEFBEB7393}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21555" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7678" uniqueCount="1298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7683" uniqueCount="1300">
   <si>
     <t>작업날짜</t>
   </si>
@@ -3817,9 +3817,6 @@
     <t>2024-12-10</t>
   </si>
   <si>
-    <t>45.0%</t>
-  </si>
-  <si>
     <t>ZEE5695</t>
   </si>
   <si>
@@ -3914,6 +3911,18 @@
   </si>
   <si>
     <t>부분 해체 기준목 설치 작업</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>50%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>75%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>65%</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4004,7 +4013,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -4313,7 +4322,7 @@
   <dimension ref="A1:X816"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G789" workbookViewId="0">
-      <selection activeCell="W815" sqref="W815"/>
+      <selection activeCell="W816" sqref="W816"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -41038,8 +41047,8 @@
       <c r="R799" t="s">
         <v>38</v>
       </c>
-      <c r="W799" s="5">
-        <v>0</v>
+      <c r="W799" s="5" t="s">
+        <v>1291</v>
       </c>
       <c r="X799" t="s">
         <v>1263</v>
@@ -41076,8 +41085,8 @@
       <c r="R800" t="s">
         <v>38</v>
       </c>
-      <c r="W800" s="5">
-        <v>0.5</v>
+      <c r="W800" s="5" t="s">
+        <v>1297</v>
       </c>
       <c r="X800" t="s">
         <v>1263</v>
@@ -41114,8 +41123,8 @@
       <c r="R801" t="s">
         <v>38</v>
       </c>
-      <c r="W801" s="5">
-        <v>0.75</v>
+      <c r="W801" s="5" t="s">
+        <v>1298</v>
       </c>
       <c r="X801" t="s">
         <v>1263</v>
@@ -41152,7 +41161,7 @@
       <c r="R802" t="s">
         <v>38</v>
       </c>
-      <c r="W802" s="4" t="s">
+      <c r="W802" s="5" t="s">
         <v>1260</v>
       </c>
       <c r="X802" t="s">
@@ -41190,22 +41199,22 @@
       <c r="R803" t="s">
         <v>38</v>
       </c>
-      <c r="W803" s="4" t="s">
+      <c r="W803" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="X803" t="s">
         <v>1265</v>
-      </c>
-      <c r="X803" t="s">
-        <v>1266</v>
       </c>
     </row>
     <row r="804" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="B804" t="s">
         <v>997</v>
       </c>
       <c r="C804" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="D804" t="s">
         <v>872</v>
@@ -41214,7 +41223,7 @@
         <v>845</v>
       </c>
       <c r="G804" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="O804">
         <v>5</v>
@@ -41229,18 +41238,18 @@
         <v>38</v>
       </c>
       <c r="S804" t="s">
+        <v>1269</v>
+      </c>
+      <c r="W804" s="5" t="s">
+        <v>1260</v>
+      </c>
+      <c r="X804" t="s">
         <v>1270</v>
-      </c>
-      <c r="W804" s="4" t="s">
-        <v>1260</v>
-      </c>
-      <c r="X804" t="s">
-        <v>1271</v>
       </c>
     </row>
     <row r="805" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B805" t="s">
         <v>997</v>
@@ -41255,7 +41264,7 @@
         <v>845</v>
       </c>
       <c r="G805" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="O805">
         <v>4</v>
@@ -41269,16 +41278,16 @@
       <c r="R805" t="s">
         <v>38</v>
       </c>
-      <c r="W805" s="4" t="s">
+      <c r="W805" s="5" t="s">
         <v>1260</v>
       </c>
       <c r="X805" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="806" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B806" t="s">
         <v>997</v>
@@ -41293,7 +41302,7 @@
         <v>845</v>
       </c>
       <c r="G806" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="O806">
         <v>3</v>
@@ -41307,16 +41316,16 @@
       <c r="R806" t="s">
         <v>38</v>
       </c>
-      <c r="W806" s="4" t="s">
+      <c r="W806" s="5" t="s">
         <v>1260</v>
       </c>
       <c r="X806" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="807" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B807" t="s">
         <v>997</v>
@@ -41345,7 +41354,7 @@
       <c r="R807" t="s">
         <v>38</v>
       </c>
-      <c r="W807" s="4" t="s">
+      <c r="W807" s="5" t="s">
         <v>1260</v>
       </c>
       <c r="X807" t="s">
@@ -41354,7 +41363,7 @@
     </row>
     <row r="808" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B808" t="s">
         <v>997</v>
@@ -41369,7 +41378,7 @@
         <v>845</v>
       </c>
       <c r="G808" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="O808">
         <v>4</v>
@@ -41383,22 +41392,22 @@
       <c r="R808" t="s">
         <v>38</v>
       </c>
-      <c r="W808" s="4" t="s">
+      <c r="W808" s="5" t="s">
         <v>1260</v>
       </c>
       <c r="X808" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="809" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B809" t="s">
         <v>642</v>
       </c>
       <c r="C809" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="D809" t="s">
         <v>844</v>
@@ -41407,7 +41416,7 @@
         <v>845</v>
       </c>
       <c r="G809" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="O809">
         <v>6</v>
@@ -41421,16 +41430,16 @@
       <c r="R809" t="s">
         <v>38</v>
       </c>
-      <c r="W809" s="4" t="s">
+      <c r="W809" s="5" t="s">
+        <v>1281</v>
+      </c>
+      <c r="X809" t="s">
         <v>1282</v>
-      </c>
-      <c r="X809" t="s">
-        <v>1283</v>
       </c>
     </row>
     <row r="810" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B810" t="s">
         <v>642</v>
@@ -41445,7 +41454,7 @@
         <v>845</v>
       </c>
       <c r="G810" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="O810">
         <v>4</v>
@@ -41459,16 +41468,16 @@
       <c r="R810" t="s">
         <v>38</v>
       </c>
-      <c r="W810" s="4" t="s">
+      <c r="W810" s="5" t="s">
         <v>1260</v>
       </c>
       <c r="X810" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="811" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B811" t="s">
         <v>642</v>
@@ -41483,7 +41492,7 @@
         <v>845</v>
       </c>
       <c r="G811" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="O811">
         <v>4</v>
@@ -41497,16 +41506,16 @@
       <c r="R811" t="s">
         <v>38</v>
       </c>
-      <c r="W811" s="5">
-        <v>0.75</v>
+      <c r="W811" s="5" t="s">
+        <v>1298</v>
       </c>
       <c r="X811" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="812" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="B812" t="s">
         <v>642</v>
@@ -41521,7 +41530,7 @@
         <v>845</v>
       </c>
       <c r="F812" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="G812" t="s">
         <v>928</v>
@@ -41538,8 +41547,8 @@
       <c r="R812" t="s">
         <v>883</v>
       </c>
-      <c r="W812" s="5">
-        <v>0.65</v>
+      <c r="W812" s="5" t="s">
+        <v>1299</v>
       </c>
       <c r="X812" t="s">
         <v>946</v>
@@ -41547,7 +41556,7 @@
     </row>
     <row r="813" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="B813" t="s">
         <v>642</v>
@@ -41562,7 +41571,7 @@
         <v>845</v>
       </c>
       <c r="F813" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="G813" t="s">
         <v>877</v>
@@ -41579,16 +41588,16 @@
       <c r="R813" t="s">
         <v>38</v>
       </c>
-      <c r="W813" s="4" t="s">
+      <c r="W813" s="5" t="s">
         <v>1260</v>
       </c>
       <c r="X813" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="814" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B814" t="s">
         <v>642</v>
@@ -41603,10 +41612,10 @@
         <v>845</v>
       </c>
       <c r="F814" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G814" t="s">
         <v>1296</v>
-      </c>
-      <c r="G814" t="s">
-        <v>1297</v>
       </c>
       <c r="O814">
         <v>30</v>
@@ -41617,16 +41626,16 @@
       <c r="R814" t="s">
         <v>883</v>
       </c>
-      <c r="W814" s="5">
-        <v>0</v>
+      <c r="W814" s="5" t="s">
+        <v>1291</v>
       </c>
       <c r="X814" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="815" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A815" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B815" t="s">
         <v>642</v>
@@ -41638,10 +41647,10 @@
         <v>849</v>
       </c>
       <c r="F815" t="s">
+        <v>1289</v>
+      </c>
+      <c r="G815" t="s">
         <v>1290</v>
-      </c>
-      <c r="G815" t="s">
-        <v>1291</v>
       </c>
       <c r="O815">
         <v>40</v>
@@ -41652,16 +41661,16 @@
       <c r="R815" t="s">
         <v>38</v>
       </c>
-      <c r="W815" s="4" t="s">
+      <c r="W815" s="5" t="s">
+        <v>1291</v>
+      </c>
+      <c r="X815" t="s">
         <v>1292</v>
-      </c>
-      <c r="X815" t="s">
-        <v>1293</v>
       </c>
     </row>
     <row r="816" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A816" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B816" t="s">
         <v>642</v>
@@ -41673,10 +41682,10 @@
         <v>856</v>
       </c>
       <c r="F816" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="G816" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="O816">
         <v>70</v>
@@ -41687,11 +41696,11 @@
       <c r="R816" t="s">
         <v>38</v>
       </c>
-      <c r="W816" s="4" t="s">
-        <v>1292</v>
+      <c r="W816" s="5" t="s">
+        <v>1291</v>
       </c>
       <c r="X816" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
   </sheetData>
@@ -41699,7 +41708,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="W802:W810 W813 W815:W816" numberStoredAsText="1"/>
+    <ignoredError sqref="W802 W813 W815:W816 W804:W810" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/static/data/작업공수/작업입력.xlsx
+++ b/static/data/작업공수/작업입력.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows11\OneDrive\문서\GitHub\Dong.github.io\static\data\작업공수\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A55D1D-AA82-450A-86E4-6CEEFBEB7393}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C500DB-F811-4CC8-AF6F-A23B3FD453EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21555" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7683" uniqueCount="1300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7684" uniqueCount="1300">
   <si>
     <t>작업날짜</t>
   </si>
@@ -4321,15 +4321,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X816"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G789" workbookViewId="0">
-      <selection activeCell="W816" sqref="W816"/>
+    <sheetView tabSelected="1" topLeftCell="A793" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R812" sqref="R812"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
     <col min="4" max="4" width="14.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
@@ -4843,6 +4845,9 @@
       <c r="O10">
         <v>0</v>
       </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
       <c r="Q10">
         <v>2</v>
       </c>
@@ -4987,6 +4992,9 @@
       <c r="O13">
         <v>0</v>
       </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
       <c r="Q13">
         <v>5</v>
       </c>
@@ -5034,6 +5042,9 @@
       <c r="O14">
         <v>0</v>
       </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
       <c r="Q14">
         <v>3</v>
       </c>
@@ -5078,6 +5089,9 @@
       <c r="O15">
         <v>0</v>
       </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
       <c r="Q15">
         <v>5</v>
       </c>
@@ -5128,6 +5142,9 @@
       <c r="O16">
         <v>0</v>
       </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
       <c r="Q16">
         <v>4</v>
       </c>
@@ -5172,6 +5189,9 @@
       <c r="O17">
         <v>0</v>
       </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
       <c r="Q17">
         <v>3</v>
       </c>
@@ -5222,6 +5242,9 @@
       <c r="O18">
         <v>0</v>
       </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
       <c r="Q18">
         <v>1</v>
       </c>
@@ -5266,6 +5289,9 @@
       <c r="O19">
         <v>0</v>
       </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
       <c r="Q19">
         <v>2</v>
       </c>
@@ -5310,6 +5336,9 @@
       <c r="O20">
         <v>0</v>
       </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
       <c r="Q20">
         <v>1</v>
       </c>
@@ -5660,6 +5689,9 @@
       <c r="O27">
         <v>0</v>
       </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
       <c r="Q27">
         <v>3</v>
       </c>
@@ -5763,6 +5795,9 @@
       <c r="O29">
         <v>0</v>
       </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
       <c r="Q29">
         <v>5</v>
       </c>
@@ -6054,6 +6089,9 @@
       <c r="O35">
         <v>0</v>
       </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
       <c r="Q35">
         <v>5</v>
       </c>
@@ -6248,6 +6286,9 @@
       <c r="O39">
         <v>0</v>
       </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
       <c r="Q39">
         <v>4</v>
       </c>
@@ -6810,6 +6851,9 @@
       <c r="O50">
         <v>0</v>
       </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
       <c r="Q50">
         <v>1</v>
       </c>
@@ -7101,6 +7145,9 @@
       <c r="O56">
         <v>0</v>
       </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
       <c r="Q56">
         <v>2</v>
       </c>
@@ -7145,6 +7192,9 @@
       <c r="O57">
         <v>0</v>
       </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
       <c r="Q57">
         <v>2</v>
       </c>
@@ -7939,6 +7989,9 @@
       <c r="O73">
         <v>0</v>
       </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
       <c r="Q73">
         <v>2</v>
       </c>
@@ -7983,6 +8036,9 @@
       <c r="O74">
         <v>0</v>
       </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
       <c r="Q74">
         <v>1</v>
       </c>
@@ -8727,6 +8783,9 @@
       <c r="O89">
         <v>0</v>
       </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
       <c r="Q89">
         <v>1</v>
       </c>
@@ -8824,6 +8883,9 @@
       <c r="O91">
         <v>0</v>
       </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
       <c r="Q91">
         <v>2</v>
       </c>
@@ -8921,6 +8983,9 @@
       <c r="O93">
         <v>0</v>
       </c>
+      <c r="P93">
+        <v>0</v>
+      </c>
       <c r="Q93">
         <v>2</v>
       </c>
@@ -9015,6 +9080,9 @@
       <c r="O95">
         <v>0</v>
       </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
       <c r="Q95">
         <v>1</v>
       </c>
@@ -9112,6 +9180,9 @@
       <c r="O97">
         <v>0</v>
       </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
       <c r="Q97">
         <v>1</v>
       </c>
@@ -9462,6 +9533,9 @@
       <c r="O104">
         <v>0</v>
       </c>
+      <c r="P104">
+        <v>0</v>
+      </c>
       <c r="Q104">
         <v>5</v>
       </c>
@@ -9956,6 +10030,9 @@
       <c r="O114">
         <v>0</v>
       </c>
+      <c r="P114">
+        <v>0</v>
+      </c>
       <c r="Q114">
         <v>4</v>
       </c>
@@ -10000,6 +10077,9 @@
       <c r="O115">
         <v>0</v>
       </c>
+      <c r="P115">
+        <v>0</v>
+      </c>
       <c r="Q115">
         <v>1</v>
       </c>
@@ -10044,6 +10124,9 @@
       <c r="O116">
         <v>0</v>
       </c>
+      <c r="P116">
+        <v>0</v>
+      </c>
       <c r="Q116">
         <v>2</v>
       </c>
@@ -10238,6 +10321,9 @@
       <c r="O120">
         <v>0</v>
       </c>
+      <c r="P120">
+        <v>0</v>
+      </c>
       <c r="Q120">
         <v>3</v>
       </c>
@@ -10682,6 +10768,9 @@
       <c r="O129">
         <v>0</v>
       </c>
+      <c r="P129">
+        <v>0</v>
+      </c>
       <c r="Q129">
         <v>2</v>
       </c>
@@ -10832,6 +10921,9 @@
       <c r="O132">
         <v>0</v>
       </c>
+      <c r="P132">
+        <v>0</v>
+      </c>
       <c r="Q132">
         <v>5</v>
       </c>
@@ -10923,6 +11015,9 @@
       <c r="O134">
         <v>0</v>
       </c>
+      <c r="P134">
+        <v>0</v>
+      </c>
       <c r="Q134">
         <v>1</v>
       </c>
@@ -11758,6 +11853,9 @@
       <c r="O151">
         <v>0</v>
       </c>
+      <c r="P151">
+        <v>0</v>
+      </c>
       <c r="Q151">
         <v>4</v>
       </c>
@@ -11802,6 +11900,9 @@
       <c r="O152">
         <v>0</v>
       </c>
+      <c r="P152">
+        <v>0</v>
+      </c>
       <c r="Q152">
         <v>1</v>
       </c>
@@ -11996,6 +12097,9 @@
       <c r="O156">
         <v>0</v>
       </c>
+      <c r="P156">
+        <v>0</v>
+      </c>
       <c r="Q156">
         <v>1</v>
       </c>
@@ -12046,6 +12150,9 @@
       <c r="O157">
         <v>0</v>
       </c>
+      <c r="P157">
+        <v>0</v>
+      </c>
       <c r="Q157">
         <v>2</v>
       </c>
@@ -12434,6 +12541,9 @@
       <c r="O165">
         <v>0</v>
       </c>
+      <c r="P165">
+        <v>0</v>
+      </c>
       <c r="Q165">
         <v>4</v>
       </c>
@@ -12481,6 +12591,9 @@
       <c r="O166">
         <v>0</v>
       </c>
+      <c r="P166">
+        <v>0</v>
+      </c>
       <c r="Q166">
         <v>2</v>
       </c>
@@ -12922,6 +13035,9 @@
       <c r="O175">
         <v>0</v>
       </c>
+      <c r="P175">
+        <v>0</v>
+      </c>
       <c r="Q175">
         <v>4</v>
       </c>
@@ -13013,6 +13129,9 @@
       <c r="O177">
         <v>0</v>
       </c>
+      <c r="P177">
+        <v>0</v>
+      </c>
       <c r="Q177">
         <v>1</v>
       </c>
@@ -13307,6 +13426,9 @@
       <c r="O183">
         <v>0</v>
       </c>
+      <c r="P183">
+        <v>0</v>
+      </c>
       <c r="Q183">
         <v>3</v>
       </c>
@@ -13504,6 +13626,9 @@
       <c r="O187">
         <v>0</v>
       </c>
+      <c r="P187">
+        <v>0</v>
+      </c>
       <c r="Q187">
         <v>1</v>
       </c>
@@ -13548,6 +13673,9 @@
       <c r="O188">
         <v>0</v>
       </c>
+      <c r="P188">
+        <v>0</v>
+      </c>
       <c r="Q188">
         <v>4</v>
       </c>
@@ -13795,6 +13923,9 @@
       <c r="O193">
         <v>0</v>
       </c>
+      <c r="P193">
+        <v>0</v>
+      </c>
       <c r="Q193">
         <v>3</v>
       </c>
@@ -14380,6 +14511,9 @@
       <c r="O205">
         <v>0</v>
       </c>
+      <c r="P205">
+        <v>0</v>
+      </c>
       <c r="Q205">
         <v>2</v>
       </c>
@@ -14774,6 +14908,9 @@
       <c r="O213">
         <v>0</v>
       </c>
+      <c r="P213">
+        <v>0</v>
+      </c>
       <c r="Q213">
         <v>3</v>
       </c>
@@ -15015,6 +15152,9 @@
       <c r="O218">
         <v>0</v>
       </c>
+      <c r="P218">
+        <v>0</v>
+      </c>
       <c r="Q218">
         <v>1</v>
       </c>
@@ -15159,6 +15299,9 @@
       <c r="O221">
         <v>0</v>
       </c>
+      <c r="P221">
+        <v>0</v>
+      </c>
       <c r="Q221">
         <v>4</v>
       </c>
@@ -15400,6 +15543,9 @@
       <c r="O226">
         <v>0</v>
       </c>
+      <c r="P226">
+        <v>0</v>
+      </c>
       <c r="Q226">
         <v>3</v>
       </c>
@@ -15994,6 +16140,9 @@
       <c r="O238">
         <v>0</v>
       </c>
+      <c r="P238">
+        <v>0</v>
+      </c>
       <c r="Q238">
         <v>1</v>
       </c>
@@ -16188,6 +16337,9 @@
       <c r="O242">
         <v>0</v>
       </c>
+      <c r="P242">
+        <v>0</v>
+      </c>
       <c r="Q242">
         <v>1</v>
       </c>
@@ -16823,6 +16975,9 @@
       <c r="O255">
         <v>0</v>
       </c>
+      <c r="P255">
+        <v>0</v>
+      </c>
       <c r="Q255">
         <v>5</v>
       </c>
@@ -16967,6 +17122,9 @@
       <c r="O258">
         <v>0</v>
       </c>
+      <c r="P258">
+        <v>0</v>
+      </c>
       <c r="Q258">
         <v>2</v>
       </c>
@@ -17814,6 +17972,9 @@
       <c r="O275">
         <v>0</v>
       </c>
+      <c r="P275">
+        <v>0</v>
+      </c>
       <c r="Q275">
         <v>1</v>
       </c>
@@ -18158,6 +18319,9 @@
       <c r="O282">
         <v>0</v>
       </c>
+      <c r="P282">
+        <v>0</v>
+      </c>
       <c r="Q282">
         <v>5</v>
       </c>
@@ -18255,6 +18419,9 @@
       <c r="O284">
         <v>0</v>
       </c>
+      <c r="P284">
+        <v>0</v>
+      </c>
       <c r="Q284">
         <v>1</v>
       </c>
@@ -18299,6 +18466,9 @@
       <c r="O285">
         <v>0</v>
       </c>
+      <c r="P285">
+        <v>0</v>
+      </c>
       <c r="Q285">
         <v>5</v>
       </c>
@@ -18881,6 +19051,9 @@
       <c r="O297">
         <v>0</v>
       </c>
+      <c r="P297">
+        <v>0</v>
+      </c>
       <c r="Q297">
         <v>1</v>
       </c>
@@ -18981,6 +19154,9 @@
       <c r="O299">
         <v>0</v>
       </c>
+      <c r="P299">
+        <v>0</v>
+      </c>
       <c r="Q299">
         <v>3</v>
       </c>
@@ -19375,6 +19551,9 @@
       <c r="O307">
         <v>0</v>
       </c>
+      <c r="P307">
+        <v>0</v>
+      </c>
       <c r="Q307">
         <v>2</v>
       </c>
@@ -19469,6 +19648,9 @@
       <c r="O309">
         <v>0</v>
       </c>
+      <c r="P309">
+        <v>0</v>
+      </c>
       <c r="Q309">
         <v>1</v>
       </c>
@@ -19616,6 +19798,9 @@
       <c r="O312">
         <v>0</v>
       </c>
+      <c r="P312">
+        <v>0</v>
+      </c>
       <c r="Q312">
         <v>4</v>
       </c>
@@ -19660,6 +19845,9 @@
       <c r="O313">
         <v>0</v>
       </c>
+      <c r="P313">
+        <v>0</v>
+      </c>
       <c r="Q313">
         <v>5</v>
       </c>
@@ -19804,6 +19992,9 @@
       <c r="O316">
         <v>0</v>
       </c>
+      <c r="P316">
+        <v>0</v>
+      </c>
       <c r="Q316">
         <v>4</v>
       </c>
@@ -19951,6 +20142,9 @@
       <c r="O319">
         <v>0</v>
       </c>
+      <c r="P319">
+        <v>0</v>
+      </c>
       <c r="Q319">
         <v>1</v>
       </c>
@@ -20292,6 +20486,9 @@
       <c r="O326">
         <v>0</v>
       </c>
+      <c r="P326">
+        <v>0</v>
+      </c>
       <c r="Q326">
         <v>4</v>
       </c>
@@ -20486,6 +20683,9 @@
       <c r="O330">
         <v>0</v>
       </c>
+      <c r="P330">
+        <v>0</v>
+      </c>
       <c r="Q330">
         <v>3</v>
       </c>
@@ -20586,6 +20786,9 @@
       <c r="O332">
         <v>0</v>
       </c>
+      <c r="P332">
+        <v>0</v>
+      </c>
       <c r="Q332">
         <v>3</v>
       </c>
@@ -20730,6 +20933,9 @@
       <c r="O335">
         <v>0</v>
       </c>
+      <c r="P335">
+        <v>0</v>
+      </c>
       <c r="Q335">
         <v>4</v>
       </c>
@@ -20921,6 +21127,9 @@
       <c r="O339">
         <v>0</v>
       </c>
+      <c r="P339">
+        <v>0</v>
+      </c>
       <c r="Q339">
         <v>3</v>
       </c>
@@ -21015,6 +21224,9 @@
       <c r="O341">
         <v>0</v>
       </c>
+      <c r="P341">
+        <v>0</v>
+      </c>
       <c r="Q341">
         <v>4</v>
       </c>
@@ -21159,6 +21371,9 @@
       <c r="O344">
         <v>0</v>
       </c>
+      <c r="P344">
+        <v>0</v>
+      </c>
       <c r="Q344">
         <v>5</v>
       </c>
@@ -21350,6 +21565,9 @@
       <c r="O348">
         <v>0</v>
       </c>
+      <c r="P348">
+        <v>0</v>
+      </c>
       <c r="Q348">
         <v>3</v>
       </c>
@@ -21450,6 +21668,9 @@
       <c r="O350">
         <v>0</v>
       </c>
+      <c r="P350">
+        <v>0</v>
+      </c>
       <c r="Q350">
         <v>4</v>
       </c>
@@ -21941,6 +22162,9 @@
       <c r="O360">
         <v>0</v>
       </c>
+      <c r="P360">
+        <v>0</v>
+      </c>
       <c r="Q360">
         <v>1</v>
       </c>
@@ -22329,6 +22553,9 @@
       <c r="O368">
         <v>0</v>
       </c>
+      <c r="P368">
+        <v>0</v>
+      </c>
       <c r="Q368">
         <v>2</v>
       </c>
@@ -22429,6 +22656,9 @@
       <c r="O370">
         <v>0</v>
       </c>
+      <c r="P370">
+        <v>0</v>
+      </c>
       <c r="Q370">
         <v>5</v>
       </c>
@@ -22623,6 +22853,9 @@
       <c r="O374">
         <v>0</v>
       </c>
+      <c r="P374">
+        <v>0</v>
+      </c>
       <c r="Q374">
         <v>2</v>
       </c>
@@ -22767,6 +23000,9 @@
       <c r="O377">
         <v>0</v>
       </c>
+      <c r="P377">
+        <v>0</v>
+      </c>
       <c r="Q377">
         <v>4</v>
       </c>
@@ -22858,6 +23094,9 @@
       <c r="O379">
         <v>0</v>
       </c>
+      <c r="P379">
+        <v>0</v>
+      </c>
       <c r="Q379">
         <v>1</v>
       </c>
@@ -22958,6 +23197,9 @@
       <c r="O381">
         <v>0</v>
       </c>
+      <c r="P381">
+        <v>0</v>
+      </c>
       <c r="Q381">
         <v>1</v>
       </c>
@@ -23399,6 +23641,9 @@
       <c r="O390">
         <v>0</v>
       </c>
+      <c r="P390">
+        <v>0</v>
+      </c>
       <c r="Q390">
         <v>5</v>
       </c>
@@ -23493,6 +23738,9 @@
       <c r="O392">
         <v>0</v>
       </c>
+      <c r="P392">
+        <v>0</v>
+      </c>
       <c r="Q392">
         <v>4</v>
       </c>
@@ -23831,6 +24079,9 @@
       <c r="O399">
         <v>0</v>
       </c>
+      <c r="P399">
+        <v>0</v>
+      </c>
       <c r="Q399">
         <v>3</v>
       </c>
@@ -23931,6 +24182,9 @@
       <c r="O401">
         <v>0</v>
       </c>
+      <c r="P401">
+        <v>0</v>
+      </c>
       <c r="Q401">
         <v>1</v>
       </c>
@@ -24178,6 +24432,9 @@
       <c r="O406">
         <v>0</v>
       </c>
+      <c r="P406">
+        <v>0</v>
+      </c>
       <c r="Q406">
         <v>4</v>
       </c>
@@ -24322,6 +24579,9 @@
       <c r="O409">
         <v>0</v>
       </c>
+      <c r="P409">
+        <v>0</v>
+      </c>
       <c r="Q409">
         <v>4</v>
       </c>
@@ -24416,6 +24676,9 @@
       <c r="O411">
         <v>0</v>
       </c>
+      <c r="P411">
+        <v>0</v>
+      </c>
       <c r="Q411">
         <v>1</v>
       </c>
@@ -24710,6 +24973,9 @@
       <c r="O417">
         <v>0</v>
       </c>
+      <c r="P417">
+        <v>0</v>
+      </c>
       <c r="Q417">
         <v>2</v>
       </c>
@@ -24801,6 +25067,9 @@
       <c r="O419">
         <v>0</v>
       </c>
+      <c r="P419">
+        <v>0</v>
+      </c>
       <c r="Q419">
         <v>2</v>
       </c>
@@ -25098,6 +25367,9 @@
       <c r="O425">
         <v>0</v>
       </c>
+      <c r="P425">
+        <v>0</v>
+      </c>
       <c r="Q425">
         <v>2</v>
       </c>
@@ -25242,6 +25514,9 @@
       <c r="O428">
         <v>0</v>
       </c>
+      <c r="P428">
+        <v>0</v>
+      </c>
       <c r="Q428">
         <v>5</v>
       </c>
@@ -25333,6 +25608,9 @@
       <c r="O430">
         <v>0</v>
       </c>
+      <c r="P430">
+        <v>0</v>
+      </c>
       <c r="Q430">
         <v>3</v>
       </c>
@@ -25430,6 +25708,9 @@
       <c r="O432">
         <v>0</v>
       </c>
+      <c r="P432">
+        <v>0</v>
+      </c>
       <c r="Q432">
         <v>5</v>
       </c>
@@ -25577,6 +25858,9 @@
       <c r="O435">
         <v>0</v>
       </c>
+      <c r="P435">
+        <v>0</v>
+      </c>
       <c r="Q435">
         <v>1</v>
       </c>
@@ -25721,6 +26005,9 @@
       <c r="O438">
         <v>0</v>
       </c>
+      <c r="P438">
+        <v>0</v>
+      </c>
       <c r="Q438">
         <v>1</v>
       </c>
@@ -25771,6 +26058,9 @@
       <c r="O439">
         <v>0</v>
       </c>
+      <c r="P439">
+        <v>0</v>
+      </c>
       <c r="Q439">
         <v>3</v>
       </c>
@@ -25862,6 +26152,9 @@
       <c r="O441">
         <v>0</v>
       </c>
+      <c r="P441">
+        <v>0</v>
+      </c>
       <c r="Q441">
         <v>2</v>
       </c>
@@ -26297,6 +26590,9 @@
       <c r="O450">
         <v>0</v>
       </c>
+      <c r="P450">
+        <v>0</v>
+      </c>
       <c r="Q450">
         <v>2</v>
       </c>
@@ -26394,6 +26690,9 @@
       <c r="O452">
         <v>0</v>
       </c>
+      <c r="P452">
+        <v>0</v>
+      </c>
       <c r="Q452">
         <v>1</v>
       </c>
@@ -26788,6 +27087,9 @@
       <c r="O460">
         <v>0</v>
       </c>
+      <c r="P460">
+        <v>0</v>
+      </c>
       <c r="Q460">
         <v>5</v>
       </c>
@@ -26882,6 +27184,9 @@
       <c r="O462">
         <v>0</v>
       </c>
+      <c r="P462">
+        <v>0</v>
+      </c>
       <c r="Q462">
         <v>4</v>
       </c>
@@ -27029,6 +27334,9 @@
       <c r="O465">
         <v>0</v>
       </c>
+      <c r="P465">
+        <v>0</v>
+      </c>
       <c r="Q465">
         <v>1</v>
       </c>
@@ -27073,6 +27381,9 @@
       <c r="O466">
         <v>0</v>
       </c>
+      <c r="P466">
+        <v>0</v>
+      </c>
       <c r="Q466">
         <v>5</v>
       </c>
@@ -27217,6 +27528,9 @@
       <c r="O469">
         <v>0</v>
       </c>
+      <c r="P469">
+        <v>0</v>
+      </c>
       <c r="Q469">
         <v>3</v>
       </c>
@@ -27261,6 +27575,9 @@
       <c r="O470">
         <v>0</v>
       </c>
+      <c r="P470">
+        <v>0</v>
+      </c>
       <c r="Q470">
         <v>4</v>
       </c>
@@ -27358,6 +27675,9 @@
       <c r="O472">
         <v>0</v>
       </c>
+      <c r="P472">
+        <v>0</v>
+      </c>
       <c r="Q472">
         <v>5</v>
       </c>
@@ -27452,6 +27772,9 @@
       <c r="O474">
         <v>0</v>
       </c>
+      <c r="P474">
+        <v>0</v>
+      </c>
       <c r="Q474">
         <v>1</v>
       </c>
@@ -27549,6 +27872,9 @@
       <c r="O476">
         <v>0</v>
       </c>
+      <c r="P476">
+        <v>0</v>
+      </c>
       <c r="Q476">
         <v>4</v>
       </c>
@@ -27693,6 +28019,9 @@
       <c r="O479">
         <v>0</v>
       </c>
+      <c r="P479">
+        <v>0</v>
+      </c>
       <c r="Q479">
         <v>1</v>
       </c>
@@ -27784,6 +28113,9 @@
       <c r="O481">
         <v>0</v>
       </c>
+      <c r="P481">
+        <v>0</v>
+      </c>
       <c r="Q481">
         <v>3</v>
       </c>
@@ -27881,6 +28213,9 @@
       <c r="O483">
         <v>0</v>
       </c>
+      <c r="P483">
+        <v>0</v>
+      </c>
       <c r="Q483">
         <v>5</v>
       </c>
@@ -28322,6 +28657,9 @@
       <c r="O492">
         <v>0</v>
       </c>
+      <c r="P492">
+        <v>0</v>
+      </c>
       <c r="Q492">
         <v>2</v>
       </c>
@@ -28760,6 +29098,9 @@
       <c r="O501">
         <v>0</v>
       </c>
+      <c r="P501">
+        <v>0</v>
+      </c>
       <c r="Q501">
         <v>5</v>
       </c>
@@ -29110,6 +29451,9 @@
       <c r="O508">
         <v>0</v>
       </c>
+      <c r="P508">
+        <v>0</v>
+      </c>
       <c r="Q508">
         <v>1</v>
       </c>
@@ -29254,6 +29598,9 @@
       <c r="O511">
         <v>0</v>
       </c>
+      <c r="P511">
+        <v>0</v>
+      </c>
       <c r="Q511">
         <v>3</v>
       </c>
@@ -41199,8 +41546,8 @@
       <c r="R803" t="s">
         <v>38</v>
       </c>
-      <c r="W803" s="5">
-        <v>0.45</v>
+      <c r="W803" s="5" t="s">
+        <v>1281</v>
       </c>
       <c r="X803" t="s">
         <v>1265</v>
@@ -41621,7 +41968,7 @@
         <v>30</v>
       </c>
       <c r="P814">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="R814" t="s">
         <v>883</v>
@@ -41656,7 +42003,7 @@
         <v>40</v>
       </c>
       <c r="P815">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R815" t="s">
         <v>38</v>
@@ -41691,7 +42038,7 @@
         <v>70</v>
       </c>
       <c r="P816">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R816" t="s">
         <v>38</v>
